--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/MICHIGAN_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/MICHIGAN_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1059"/>
+  <dimension ref="A1:D1053"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASIENTOS</t>
+          <t>Asientos</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>CALVILLO</t>
+          <t>Calvillo</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>COSÍO</t>
+          <t>Cosío</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>EL LLANO</t>
+          <t>El Llano</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>RINCÓN DE ROMOS</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9">
@@ -491,12 +491,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ENSENADA</t>
+          <t>Ensenada</t>
         </is>
       </c>
       <c r="C10">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C11">
@@ -522,7 +522,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>TECATE</t>
+          <t>Tecate</t>
         </is>
       </c>
       <c r="C12">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C13">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C14">
@@ -561,12 +561,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA SUR</t>
+          <t>Baja California Sur</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C15">
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C16">
@@ -592,12 +592,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="C17">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="C18">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHAMPOTÓN</t>
+          <t>Champotón</t>
         </is>
       </c>
       <c r="C19">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>ESCÁRCEGA</t>
+          <t>Escárcega</t>
         </is>
       </c>
       <c r="C20">
@@ -649,7 +649,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C21">
@@ -662,12 +662,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ACACOYAGUA</t>
+          <t>Acacoyagua</t>
         </is>
       </c>
       <c r="C22">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>ACAPETAHUA</t>
+          <t>Acapetahua</t>
         </is>
       </c>
       <c r="C23">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>ALTAMIRANO</t>
+          <t>Altamirano</t>
         </is>
       </c>
       <c r="C24">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>AMATENANGO DE LA FRONTERA</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C25">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>ANGEL ALBINO CORZO</t>
+          <t>Angel Albino Corzo</t>
         </is>
       </c>
       <c r="C26">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>BEJUCAL DE OCAMPO</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C27">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>BELLA VISTA</t>
+          <t>Bella Vista</t>
         </is>
       </c>
       <c r="C28">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>BOCHIL</t>
+          <t>Bochil</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>CACAHOATÁN</t>
+          <t>Cacahoatán</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>CHAMULA</t>
+          <t>Chamula</t>
         </is>
       </c>
       <c r="C31">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>CHAPULTENANGO</t>
+          <t>Chapultenango</t>
         </is>
       </c>
       <c r="C32">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>CHENALHÓ</t>
+          <t>Chenalhó</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>CHICOASÉN</t>
+          <t>Chicoasén</t>
         </is>
       </c>
       <c r="C34">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>CHICOMUSELO</t>
+          <t>Chicomuselo</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>CHILÓN</t>
+          <t>Chilón</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>CINTALAPA</t>
+          <t>Cintalapa</t>
         </is>
       </c>
       <c r="C37">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C38">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>COPAINALÁ</t>
+          <t>Copainalá</t>
         </is>
       </c>
       <c r="C39">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>EL BOSQUE</t>
+          <t>El Bosque</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>El Porvenir</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
+          <t>Escuintla</t>
         </is>
       </c>
       <c r="C42">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C43">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRONTERA HIDALGO</t>
+          <t>Frontera Hidalgo</t>
         </is>
       </c>
       <c r="C44">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>HUEHUETÁN</t>
+          <t>Huehuetán</t>
         </is>
       </c>
       <c r="C45">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>HUITIUPÁN</t>
+          <t>Huitiupán</t>
         </is>
       </c>
       <c r="C46">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>HUIXTLA</t>
+          <t>Huixtla</t>
         </is>
       </c>
       <c r="C47">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>HUIXTÁN</t>
+          <t>Huixtán</t>
         </is>
       </c>
       <c r="C48">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>IXHUATÁN</t>
+          <t>Ixhuatán</t>
         </is>
       </c>
       <c r="C49">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>IXTAPANGAJOYA</t>
+          <t>Ixtapangajoya</t>
         </is>
       </c>
       <c r="C50">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>JIQUIPILAS</t>
+          <t>Jiquipilas</t>
         </is>
       </c>
       <c r="C51">
@@ -1057,7 +1057,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C52">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>LA CONCORDIA</t>
+          <t>La Concordia</t>
         </is>
       </c>
       <c r="C53">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>LA INDEPENDENCIA</t>
+          <t>La Independencia</t>
         </is>
       </c>
       <c r="C54">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C55">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>LARRÁINZAR</t>
+          <t>Larráinzar</t>
         </is>
       </c>
       <c r="C56">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C57">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C58">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>MARAVILLA TENEJAPA</t>
+          <t>Maravilla Tenejapa</t>
         </is>
       </c>
       <c r="C59">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>MAZAPA DE MADERO</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C60">
@@ -1174,7 +1174,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>MAZATÁN</t>
+          <t>Mazatán</t>
         </is>
       </c>
       <c r="C61">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>MEZCALAPA</t>
+          <t>Mezcalapa</t>
         </is>
       </c>
       <c r="C62">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>MITONTIC</t>
+          <t>Mitontic</t>
         </is>
       </c>
       <c r="C63">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>MONTECRISTO DE GUERRERO</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C64">
@@ -1226,7 +1226,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C65">
@@ -1239,7 +1239,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C66">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C67">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>OCOTEPEC</t>
+          <t>Ocotepec</t>
         </is>
       </c>
       <c r="C68">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>OCOZOCOAUTLA DE ESPINOSA</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C69">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>PALENQUE</t>
+          <t>Palenque</t>
         </is>
       </c>
       <c r="C70">
@@ -1304,7 +1304,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>PANTELHÓ</t>
+          <t>Pantelhó</t>
         </is>
       </c>
       <c r="C71">
@@ -1317,7 +1317,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>PANTEPEC</t>
+          <t>Pantepec</t>
         </is>
       </c>
       <c r="C72">
@@ -1330,7 +1330,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>PICHUCALCO</t>
+          <t>Pichucalco</t>
         </is>
       </c>
       <c r="C73">
@@ -1343,7 +1343,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>PIJIJIAPAN</t>
+          <t>Pijijiapan</t>
         </is>
       </c>
       <c r="C74">
@@ -1356,7 +1356,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO SOLISTAHUACÁN</t>
+          <t>Pueblo Nuevo Solistahuacán</t>
         </is>
       </c>
       <c r="C75">
@@ -1369,7 +1369,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>REFORMA</t>
+          <t>Reforma</t>
         </is>
       </c>
       <c r="C76">
@@ -1382,7 +1382,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>SALTO DE AGUA</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C77">
@@ -1395,7 +1395,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS DURAZNAL</t>
+          <t>San Andrés Duraznal</t>
         </is>
       </c>
       <c r="C78">
@@ -1408,7 +1408,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LAS CASAS</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C79">
@@ -1421,7 +1421,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>SAN JUAN CANCUC</t>
+          <t>San Juan Cancuc</t>
         </is>
       </c>
       <c r="C80">
@@ -1434,7 +1434,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>SANTIAGO EL PINAR</t>
+          <t>Santiago El Pinar</t>
         </is>
       </c>
       <c r="C81">
@@ -1447,7 +1447,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C82">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>SIMOJOVEL</t>
+          <t>Simojovel</t>
         </is>
       </c>
       <c r="C83">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>SUCHIATE</t>
+          <t>Suchiate</t>
         </is>
       </c>
       <c r="C84">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C85">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>TECPATÁN</t>
+          <t>Tecpatán</t>
         </is>
       </c>
       <c r="C86">
@@ -1512,7 +1512,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>TENEJAPA</t>
+          <t>Tenejapa</t>
         </is>
       </c>
       <c r="C87">
@@ -1525,7 +1525,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>TEOPISCA</t>
+          <t>Teopisca</t>
         </is>
       </c>
       <c r="C88">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C89">
@@ -1551,7 +1551,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>TUMBALÁ</t>
+          <t>Tumbalá</t>
         </is>
       </c>
       <c r="C90">
@@ -1564,7 +1564,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>TUXTLA CHICO</t>
+          <t>Tuxtla Chico</t>
         </is>
       </c>
       <c r="C91">
@@ -1577,7 +1577,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>TUXTLA GUTIÉRREZ</t>
+          <t>Tuxtla Gutiérrez</t>
         </is>
       </c>
       <c r="C92">
@@ -1590,7 +1590,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>TUZANTÁN</t>
+          <t>Tuzantán</t>
         </is>
       </c>
       <c r="C93">
@@ -1603,7 +1603,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>TZIMOL</t>
+          <t>Tzimol</t>
         </is>
       </c>
       <c r="C94">
@@ -1616,7 +1616,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>UNIÓN JUÁREZ</t>
+          <t>Unión Juárez</t>
         </is>
       </c>
       <c r="C95">
@@ -1629,7 +1629,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>VILLA COMALTITLÁN</t>
+          <t>Villa Comaltitlán</t>
         </is>
       </c>
       <c r="C96">
@@ -1642,7 +1642,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>VILLA CORZO</t>
+          <t>Villa Corzo</t>
         </is>
       </c>
       <c r="C97">
@@ -1655,7 +1655,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>VILLAFLORES</t>
+          <t>Villaflores</t>
         </is>
       </c>
       <c r="C98">
@@ -1668,7 +1668,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>YAJALÓN</t>
+          <t>Yajalón</t>
         </is>
       </c>
       <c r="C99">
@@ -1681,7 +1681,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>ZINACANTÁN</t>
+          <t>Zinacantán</t>
         </is>
       </c>
       <c r="C100">
@@ -1694,7 +1694,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C101">
@@ -1707,12 +1707,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ALLENDE</t>
+          <t>Allende</t>
         </is>
       </c>
       <c r="C102">
@@ -1725,7 +1725,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>CAMARGO</t>
+          <t>Camargo</t>
         </is>
       </c>
       <c r="C103">
@@ -1738,7 +1738,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="C104">
@@ -1751,7 +1751,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C105">
@@ -1764,7 +1764,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="C106">
@@ -1777,7 +1777,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>DR. BELISARIO DOMÍNGUEZ</t>
+          <t>Dr. Belisario Domínguez</t>
         </is>
       </c>
       <c r="C107">
@@ -1790,7 +1790,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>GRAN MORELOS</t>
+          <t>Gran Morelos</t>
         </is>
       </c>
       <c r="C108">
@@ -1803,7 +1803,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>HIDALGO DEL PARRAL</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C109">
@@ -1816,7 +1816,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C110">
@@ -1829,7 +1829,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>NAMIQUIPA</t>
+          <t>Namiquipa</t>
         </is>
       </c>
       <c r="C111">
@@ -1842,7 +1842,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>SANTA BÁRBARA</t>
+          <t>Santa Bárbara</t>
         </is>
       </c>
       <c r="C112">
@@ -1855,7 +1855,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>URUACHI</t>
+          <t>Uruachi</t>
         </is>
       </c>
       <c r="C113">
@@ -1868,7 +1868,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C114">
@@ -1881,12 +1881,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C115">
@@ -1899,7 +1899,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C116">
@@ -1912,7 +1912,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C117">
@@ -1925,7 +1925,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>CUAJIMALPA DE MORELOS</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C118">
@@ -1938,7 +1938,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C119">
@@ -1951,7 +1951,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C120">
@@ -1964,7 +1964,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C121">
@@ -1977,7 +1977,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C122">
@@ -1990,7 +1990,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>LA MAGDALENA CONTRERAS</t>
+          <t>La Magdalena Contreras</t>
         </is>
       </c>
       <c r="C123">
@@ -2003,7 +2003,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C124">
@@ -2016,7 +2016,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>MILPA ALTA</t>
+          <t>Milpa Alta</t>
         </is>
       </c>
       <c r="C125">
@@ -2029,7 +2029,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C126">
@@ -2042,7 +2042,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>TLALPAN</t>
+          <t>Tlalpan</t>
         </is>
       </c>
       <c r="C127">
@@ -2055,7 +2055,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>TLÁHUAC</t>
+          <t>Tláhuac</t>
         </is>
       </c>
       <c r="C128">
@@ -2068,7 +2068,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C129">
@@ -2081,7 +2081,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>XOCHIMILCO</t>
+          <t>Xochimilco</t>
         </is>
       </c>
       <c r="C130">
@@ -2094,7 +2094,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C131">
@@ -2107,7 +2107,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C132">
@@ -2120,12 +2120,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ACUÑA</t>
+          <t>Acuña</t>
         </is>
       </c>
       <c r="C133">
@@ -2138,7 +2138,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C134">
@@ -2151,7 +2151,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C135">
@@ -2164,7 +2164,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>MONCLOVA</t>
+          <t>Monclova</t>
         </is>
       </c>
       <c r="C136">
@@ -2177,7 +2177,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>SABINAS</t>
+          <t>Sabinas</t>
         </is>
       </c>
       <c r="C137">
@@ -2190,7 +2190,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>SALTILLO</t>
+          <t>Saltillo</t>
         </is>
       </c>
       <c r="C138">
@@ -2203,7 +2203,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>SAN JUAN DE SABINAS</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C139">
@@ -2216,7 +2216,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>SAN PEDRO</t>
+          <t>San Pedro</t>
         </is>
       </c>
       <c r="C140">
@@ -2229,7 +2229,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>TORREÓN</t>
+          <t>Torreón</t>
         </is>
       </c>
       <c r="C141">
@@ -2242,7 +2242,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C142">
@@ -2255,12 +2255,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="C143">
@@ -2273,7 +2273,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C144">
@@ -2286,7 +2286,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>MANZANILLO</t>
+          <t>Manzanillo</t>
         </is>
       </c>
       <c r="C145">
@@ -2299,7 +2299,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>TECOMÁN</t>
+          <t>Tecomán</t>
         </is>
       </c>
       <c r="C146">
@@ -2312,7 +2312,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>VILLA DE ÁLVAREZ</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C147">
@@ -2325,7 +2325,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C148">
@@ -2338,12 +2338,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CANATLÁN</t>
+          <t>Canatlán</t>
         </is>
       </c>
       <c r="C149">
@@ -2356,7 +2356,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>CANELAS</t>
+          <t>Canelas</t>
         </is>
       </c>
       <c r="C150">
@@ -2369,7 +2369,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>CONETO DE COMONFORT</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C151">
@@ -2382,7 +2382,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C152">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>EL ORO</t>
+          <t>El Oro</t>
         </is>
       </c>
       <c r="C153">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>GENERAL SIMÓN BOLÍVAR</t>
+          <t>General Simón Bolívar</t>
         </is>
       </c>
       <c r="C154">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C155">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>GUANACEVÍ</t>
+          <t>Guanaceví</t>
         </is>
       </c>
       <c r="C156">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>GÓMEZ PALACIO</t>
+          <t>Gómez Palacio</t>
         </is>
       </c>
       <c r="C157">
@@ -2460,7 +2460,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C158">
@@ -2473,7 +2473,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>INDÉ</t>
+          <t>Indé</t>
         </is>
       </c>
       <c r="C159">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>LERDO</t>
+          <t>Lerdo</t>
         </is>
       </c>
       <c r="C160">
@@ -2499,7 +2499,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>MAPIMÍ</t>
+          <t>Mapimí</t>
         </is>
       </c>
       <c r="C161">
@@ -2512,7 +2512,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>NAZAS</t>
+          <t>Nazas</t>
         </is>
       </c>
       <c r="C162">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>NUEVO IDEAL</t>
+          <t>Nuevo Ideal</t>
         </is>
       </c>
       <c r="C163">
@@ -2538,7 +2538,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C164">
@@ -2551,7 +2551,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>Pueblo Nuevo</t>
         </is>
       </c>
       <c r="C165">
@@ -2564,7 +2564,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>RODEO</t>
+          <t>Rodeo</t>
         </is>
       </c>
       <c r="C166">
@@ -2577,7 +2577,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>SAN BERNARDO</t>
+          <t>San Bernardo</t>
         </is>
       </c>
       <c r="C167">
@@ -2590,7 +2590,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>SAN DIMAS</t>
+          <t>San Dimas</t>
         </is>
       </c>
       <c r="C168">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>SANTIAGO PAPASQUIARO</t>
+          <t>Santiago Papasquiaro</t>
         </is>
       </c>
       <c r="C169">
@@ -2616,7 +2616,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>SÚCHIL</t>
+          <t>Súchil</t>
         </is>
       </c>
       <c r="C170">
@@ -2629,7 +2629,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>TEPEHUANES</t>
+          <t>Tepehuanes</t>
         </is>
       </c>
       <c r="C171">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>TOPIA</t>
+          <t>Topia</t>
         </is>
       </c>
       <c r="C172">
@@ -2655,7 +2655,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C173">
@@ -2668,7 +2668,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C174">
@@ -2681,12 +2681,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ACAMBAY DE RUÍZ CASTAÑEDA</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C175">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE ALQUISIRAS</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C176">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE JUÁREZ</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C177">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>AMATEPEC</t>
+          <t>Amatepec</t>
         </is>
       </c>
       <c r="C178">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>AMECAMECA</t>
+          <t>Amecameca</t>
         </is>
       </c>
       <c r="C179">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>ATENCO</t>
+          <t>Atenco</t>
         </is>
       </c>
       <c r="C180">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>ATIZAPÁN</t>
+          <t>Atizapán</t>
         </is>
       </c>
       <c r="C181">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>ATIZAPÁN DE ZARAGOZA</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C182">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>ATLACOMULCO</t>
+          <t>Atlacomulco</t>
         </is>
       </c>
       <c r="C183">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>ATLAUTLA</t>
+          <t>Atlautla</t>
         </is>
       </c>
       <c r="C184">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C185">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>CHAPA DE MOTA</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C186">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>CHIAUTLA</t>
+          <t>Chiautla</t>
         </is>
       </c>
       <c r="C187">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>CHICOLOAPAN</t>
+          <t>Chicoloapan</t>
         </is>
       </c>
       <c r="C188">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>CHIMALHUACÁN</t>
+          <t>Chimalhuacán</t>
         </is>
       </c>
       <c r="C189">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>COACALCO DE BERRIOZÁBAL</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C190">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN</t>
+          <t>Cuautitlán</t>
         </is>
       </c>
       <c r="C191">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN IZCALLI</t>
+          <t>Cuautitlán Izcalli</t>
         </is>
       </c>
       <c r="C192">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C193">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>EL ORO</t>
+          <t>El Oro</t>
         </is>
       </c>
       <c r="C194">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>HUIXQUILUCAN</t>
+          <t>Huixquilucan</t>
         </is>
       </c>
       <c r="C195">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>IXTAPAN DE LA SAL</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C196">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>IXTLAHUACA</t>
+          <t>Ixtlahuaca</t>
         </is>
       </c>
       <c r="C197">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>JILOTEPEC</t>
+          <t>Jilotepec</t>
         </is>
       </c>
       <c r="C198">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>JIQUIPILCO</t>
+          <t>Jiquipilco</t>
         </is>
       </c>
       <c r="C199">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>JOCOTITLÁN</t>
+          <t>Jocotitlán</t>
         </is>
       </c>
       <c r="C200">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>LA PAZ</t>
+          <t>La Paz</t>
         </is>
       </c>
       <c r="C201">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>MALINALCO</t>
+          <t>Malinalco</t>
         </is>
       </c>
       <c r="C202">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C203">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C204">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C205">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>NICOLÁS ROMERO</t>
+          <t>Nicolás Romero</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C207">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>OCOYOACAC</t>
+          <t>Ocoyoacac</t>
         </is>
       </c>
       <c r="C208">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>OCUILAN</t>
+          <t>Ocuilan</t>
         </is>
       </c>
       <c r="C209">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C210">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>SAN JOSÉ DEL RINCÓN</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C211">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>SULTEPEC</t>
+          <t>Sultepec</t>
         </is>
       </c>
       <c r="C212">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>TECÁMAC</t>
+          <t>Tecámac</t>
         </is>
       </c>
       <c r="C213">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>TEJUPILCO</t>
+          <t>Tejupilco</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>TEMAMATLA</t>
+          <t>Temamatla</t>
         </is>
       </c>
       <c r="C215">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>TEMASCALAPA</t>
+          <t>Temascalapa</t>
         </is>
       </c>
       <c r="C216">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>TEMASCALCINGO</t>
+          <t>Temascalcingo</t>
         </is>
       </c>
       <c r="C217">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>TEMASCALTEPEC</t>
+          <t>Temascaltepec</t>
         </is>
       </c>
       <c r="C218">
@@ -3258,7 +3258,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C219">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>TENANGO DEL VALLE</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C220">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>TEOTIHUACÁN</t>
+          <t>Teotihuacán</t>
         </is>
       </c>
       <c r="C221">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>TEPETLAOXTOC</t>
+          <t>Tepetlaoxtoc</t>
         </is>
       </c>
       <c r="C222">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>TEQUIXQUIAC</t>
+          <t>Tequixquiac</t>
         </is>
       </c>
       <c r="C223">
@@ -3323,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>TEXCALTITLÁN</t>
+          <t>Texcaltitlán</t>
         </is>
       </c>
       <c r="C224">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>TEXCOCO</t>
+          <t>Texcoco</t>
         </is>
       </c>
       <c r="C225">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>TEZOYUCA</t>
+          <t>Tezoyuca</t>
         </is>
       </c>
       <c r="C226">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>TIANGUISTENCO</t>
+          <t>Tianguistenco</t>
         </is>
       </c>
       <c r="C227">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C228">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>TLATLAYA</t>
+          <t>Tlatlaya</t>
         </is>
       </c>
       <c r="C229">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C230">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>TONATICO</t>
+          <t>Tonatico</t>
         </is>
       </c>
       <c r="C231">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>TULTEPEC</t>
+          <t>Tultepec</t>
         </is>
       </c>
       <c r="C232">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>VALLE DE BRAVO</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C233">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>VALLE DE CHALCO SOLIDARIDAD</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C234">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>VILLA DE ALLENDE</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C235">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>VILLA VICTORIA</t>
+          <t>Villa Victoria</t>
         </is>
       </c>
       <c r="C236">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>XONACATLÁN</t>
+          <t>Xonacatlán</t>
         </is>
       </c>
       <c r="C237">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>ZACUALPAN</t>
+          <t>Zacualpan</t>
         </is>
       </c>
       <c r="C238">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>ZUMPANGO</t>
+          <t>Zumpango</t>
         </is>
       </c>
       <c r="C239">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C240">
@@ -3544,12 +3544,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ABASOLO</t>
+          <t>Abasolo</t>
         </is>
       </c>
       <c r="C241">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>ACÁMBARO</t>
+          <t>Acámbaro</t>
         </is>
       </c>
       <c r="C242">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>APASEO EL ALTO</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C243">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>APASEO EL GRANDE</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C244">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>ATARJEA</t>
+          <t>Atarjea</t>
         </is>
       </c>
       <c r="C245">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C246">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>COMONFORT</t>
+          <t>Comonfort</t>
         </is>
       </c>
       <c r="C247">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>CORTAZAR</t>
+          <t>Cortazar</t>
         </is>
       </c>
       <c r="C248">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>CUERÁMARO</t>
+          <t>Cuerámaro</t>
         </is>
       </c>
       <c r="C249">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>DOCTOR MORA</t>
+          <t>Doctor Mora</t>
         </is>
       </c>
       <c r="C250">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>DOLORES HIDALGO CUNA DE LA INDEPENDENCIA NACIONAL</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C251">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C252">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C253">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>JARAL DEL PROGRESO</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C254">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>JERÉCUARO</t>
+          <t>Jerécuaro</t>
         </is>
       </c>
       <c r="C255">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C256">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>MANUEL DOBLADO</t>
+          <t>Manuel Doblado</t>
         </is>
       </c>
       <c r="C257">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>MARAVATÍO</t>
+          <t>Maravatío</t>
         </is>
       </c>
       <c r="C258">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>MOROLEÓN</t>
+          <t>Moroleón</t>
         </is>
       </c>
       <c r="C259">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C260">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>PURÍSIMA DEL RINCÓN</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C261">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C262">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="C263">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>SALVATIERRA</t>
+          <t>Salvatierra</t>
         </is>
       </c>
       <c r="C264">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>SAN DIEGO DE LA UNIÓN</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C265">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C266">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL RINCÓN</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C267">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>SAN JOSÉ ITURBIDE</t>
+          <t>San José Iturbide</t>
         </is>
       </c>
       <c r="C268">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>SAN LUIS DE LA PAZ</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C269">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE ALLENDE</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C270">
@@ -3939,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C271">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>SANTIAGO MARAVATÍO</t>
+          <t>Santiago Maravatío</t>
         </is>
       </c>
       <c r="C272">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>SILAO DE LA VICTORIA</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C273">
@@ -3978,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>TARANDACUAO</t>
+          <t>Tarandacuao</t>
         </is>
       </c>
       <c r="C274">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>TARIMORO</t>
+          <t>Tarimoro</t>
         </is>
       </c>
       <c r="C275">
@@ -4004,7 +4004,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C276">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>URIANGATO</t>
+          <t>Uriangato</t>
         </is>
       </c>
       <c r="C277">
@@ -4030,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C278">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C279">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>VILLAGRÁN</t>
+          <t>Villagrán</t>
         </is>
       </c>
       <c r="C280">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>XICHÚ</t>
+          <t>Xichú</t>
         </is>
       </c>
       <c r="C281">
@@ -4082,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>YURIRIA</t>
+          <t>Yuriria</t>
         </is>
       </c>
       <c r="C282">
@@ -4095,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C283">
@@ -4108,12 +4108,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C284">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>ACATEPEC</t>
+          <t>Acatepec</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>AHUACUOTZINGO</t>
+          <t>Ahuacuotzingo</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>AJUCHITLÁN DEL PROGRESO</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>ALCOZAUCA DE GUERRERO</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C288">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>ALPOYECA</t>
+          <t>Alpoyeca</t>
         </is>
       </c>
       <c r="C289">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>ARCELIA</t>
+          <t>Arcelia</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>ATENANGO DEL RÍO</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C291">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>ATLIXTAC</t>
+          <t>Atlixtac</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>ATOYAC DE ÁLVAREZ</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>AYUTLA DE LOS LIBRES</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C294">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C295">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>BUENAVISTA DE CUÉLLAR</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>CHILAPA DE ÁLVAREZ</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C297">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>CHILPANCINGO DE LOS BRAVO</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>COCULA</t>
+          <t>Cocula</t>
         </is>
       </c>
       <c r="C299">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>COPALA</t>
+          <t>Copala</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>COYUCA DE BENÍTEZ</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>COYUCA DE CATALÁN</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C302">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>CUAJINICUILAPA</t>
+          <t>Cuajinicuilapa</t>
         </is>
       </c>
       <c r="C303">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>CUTZAMALA DE PINZÓN</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C304">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>EDUARDO NERI</t>
+          <t>Eduardo Neri</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>FLORENCIO VILLARREAL</t>
+          <t>Florencio Villarreal</t>
         </is>
       </c>
       <c r="C306">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>GENERAL CANUTO A. NERI</t>
+          <t>General Canuto A. Neri</t>
         </is>
       </c>
       <c r="C307">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>GENERAL HELIODORO CASTILLO</t>
+          <t>General Heliodoro Castillo</t>
         </is>
       </c>
       <c r="C308">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>HUAMUXTITLÁN</t>
+          <t>Huamuxtitlán</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>HUITZUCO DE LOS FIGUEROA</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C310">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>IGUALA DE LA INDEPENDENCIA</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>IGUALAPA</t>
+          <t>Igualapa</t>
         </is>
       </c>
       <c r="C312">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>IXCATEOPAN DE CUAUHTÉMOC</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C313">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>JUAN R. ESCUDERO</t>
+          <t>Juan R. Escudero</t>
         </is>
       </c>
       <c r="C314">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>LA UNIÓN DE ISIDORO MONTES DE OCA</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>MALINALTEPEC</t>
+          <t>Malinaltepec</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>MOCHITLÁN</t>
+          <t>Mochitlán</t>
         </is>
       </c>
       <c r="C317">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>MÁRTIR DE CUILAPAN</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C318">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C319">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>OLINALÁ</t>
+          <t>Olinalá</t>
         </is>
       </c>
       <c r="C320">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C321">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>PEDRO ASCENCIO ALQUISIRAS</t>
+          <t>Pedro Ascencio Alquisiras</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>PETATLÁN</t>
+          <t>Petatlán</t>
         </is>
       </c>
       <c r="C323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>PUNGARABATO</t>
+          <t>Pungarabato</t>
         </is>
       </c>
       <c r="C324">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>QUECHULTENANGO</t>
+          <t>Quechultenango</t>
         </is>
       </c>
       <c r="C325">
@@ -4659,7 +4659,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C326">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="C327">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TOTOLAPAN</t>
+          <t>San Miguel Totolapan</t>
         </is>
       </c>
       <c r="C328">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>TAXCO DE ALARCÓN</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C329">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
+          <t>Tecoanapa</t>
         </is>
       </c>
       <c r="C330">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>TELOLOAPAN</t>
+          <t>Teloloapan</t>
         </is>
       </c>
       <c r="C331">
@@ -4737,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>TEPECOACUILCO DE TRUJANO</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C332">
@@ -4750,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>TLACOACHISTLAHUACA</t>
+          <t>Tlacoachistlahuaca</t>
         </is>
       </c>
       <c r="C333">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>TLALCHAPA</t>
+          <t>Tlalchapa</t>
         </is>
       </c>
       <c r="C334">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>TLALIXTAQUILLA DE MALDONADO</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C335">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C336">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>TLAPEHUALA</t>
+          <t>Tlapehuala</t>
         </is>
       </c>
       <c r="C337">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C338">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>XALPATLÁHUAC</t>
+          <t>Xalpatláhuac</t>
         </is>
       </c>
       <c r="C339">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>XOCHIHUEHUETLÁN</t>
+          <t>Xochihuehuetlán</t>
         </is>
       </c>
       <c r="C340">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN TABLAS</t>
+          <t>Zapotitlán Tablas</t>
         </is>
       </c>
       <c r="C341">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>ZIHUATANEJO DE AZUETA</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C342">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>ZIRÁNDARO</t>
+          <t>Zirándaro</t>
         </is>
       </c>
       <c r="C343">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C344">
@@ -4906,12 +4906,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>AJACUBA</t>
+          <t>Ajacuba</t>
         </is>
       </c>
       <c r="C346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>ALFAJAYUCAN</t>
+          <t>Alfajayucan</t>
         </is>
       </c>
       <c r="C347">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>APAN</t>
+          <t>Apan</t>
         </is>
       </c>
       <c r="C348">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL GRANDE</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C349">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>CARDONAL</t>
+          <t>Cardonal</t>
         </is>
       </c>
       <c r="C350">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>CHAPULHUACÁN</t>
+          <t>Chapulhuacán</t>
         </is>
       </c>
       <c r="C351">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>CHILCUAUTLA</t>
+          <t>Chilcuautla</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>CUAUTEPEC DE HINOJOSA</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C353">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>ELOXOCHITLÁN</t>
+          <t>Eloxochitlán</t>
         </is>
       </c>
       <c r="C354">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>FRANCISCO I. MADERO</t>
+          <t>Francisco I. Madero</t>
         </is>
       </c>
       <c r="C355">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>HUAZALINGO</t>
+          <t>Huazalingo</t>
         </is>
       </c>
       <c r="C356">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>HUEHUETLA</t>
+          <t>Huehuetla</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>HUEJUTLA DE REYES</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>HUICHAPAN</t>
+          <t>Huichapan</t>
         </is>
       </c>
       <c r="C359">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C360">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>JALTOCÁN</t>
+          <t>Jaltocán</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>JUÁREZ HIDALGO</t>
+          <t>Juárez Hidalgo</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>LA MISIÓN</t>
+          <t>La Misión</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>LOLOTLA</t>
+          <t>Lolotla</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>METEPEC</t>
+          <t>Metepec</t>
         </is>
       </c>
       <c r="C365">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>METZTITLÁN</t>
+          <t>Metztitlán</t>
         </is>
       </c>
       <c r="C366">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>MINERAL DEL CHICO</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C367">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>MOLANGO DE ESCAMILLA</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C368">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>NICOLÁS FLORES</t>
+          <t>Nicolás Flores</t>
         </is>
       </c>
       <c r="C369">
@@ -5236,7 +5236,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C370">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>PACULA</t>
+          <t>Pacula</t>
         </is>
       </c>
       <c r="C371">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>PISAFLORES</t>
+          <t>Pisaflores</t>
         </is>
       </c>
       <c r="C372">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>PROGRESO DE OBREGÓN</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C373">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN TLAXIACA</t>
+          <t>San Agustín Tlaxiaca</t>
         </is>
       </c>
       <c r="C374">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>SAN BARTOLO TUTOTEPEC</t>
+          <t>San Bartolo Tutotepec</t>
         </is>
       </c>
       <c r="C375">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>SAN FELIPE ORIZATLÁN</t>
+          <t>San Felipe Orizatlán</t>
         </is>
       </c>
       <c r="C376">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>SANTIAGO DE ANAYA</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C377">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>TASQUILLO</t>
+          <t>Tasquillo</t>
         </is>
       </c>
       <c r="C378">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>TECOZAUTLA</t>
+          <t>Tecozautla</t>
         </is>
       </c>
       <c r="C379">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>TEPEAPULCO</t>
+          <t>Tepeapulco</t>
         </is>
       </c>
       <c r="C380">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>TEPEHUACÁN DE GUERRERO</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C381">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>TEPEJI DEL RÍO DE OCAMPO</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C382">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>TEZONTEPEC DE ALDAMA</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C383">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>TIANGUISTENGO</t>
+          <t>Tianguistengo</t>
         </is>
       </c>
       <c r="C384">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>TIZAYUCA</t>
+          <t>Tizayuca</t>
         </is>
       </c>
       <c r="C385">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>TLAHUILTEPA</t>
+          <t>Tlahuiltepa</t>
         </is>
       </c>
       <c r="C386">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>TLANALAPA</t>
+          <t>Tlanalapa</t>
         </is>
       </c>
       <c r="C387">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>TULA DE ALLENDE</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C388">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C389">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>XOCHICOATLÁN</t>
+          <t>Xochicoatlán</t>
         </is>
       </c>
       <c r="C390">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>ZACUALTIPÁN DE ÁNGELES</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C391">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN DE JUÁREZ</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C392">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>ZIMAPÁN</t>
+          <t>Zimapán</t>
         </is>
       </c>
       <c r="C393">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C394">
@@ -5561,12 +5561,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>AMACUECA</t>
+          <t>Amacueca</t>
         </is>
       </c>
       <c r="C395">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>AMECA</t>
+          <t>Ameca</t>
         </is>
       </c>
       <c r="C396">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>ARANDAS</t>
+          <t>Arandas</t>
         </is>
       </c>
       <c r="C397">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL ALTO</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C398">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>ATOYAC</t>
+          <t>Atoyac</t>
         </is>
       </c>
       <c r="C399">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>AYOTLÁN</t>
+          <t>Ayotlán</t>
         </is>
       </c>
       <c r="C400">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>AYUTLA</t>
+          <t>Ayutla</t>
         </is>
       </c>
       <c r="C401">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>COLOTLÁN</t>
+          <t>Colotlán</t>
         </is>
       </c>
       <c r="C402">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>CONCEPCIÓN DE BUENOS AIRES</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C403">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN DE GARCÍA BARRAGÁN</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C404">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>CUQUÍO</t>
+          <t>Cuquío</t>
         </is>
       </c>
       <c r="C405">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>DEGOLLADO</t>
+          <t>Degollado</t>
         </is>
       </c>
       <c r="C406">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>EL SALTO</t>
+          <t>El Salto</t>
         </is>
       </c>
       <c r="C407">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>ENCARNACIÓN DE DÍAZ</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C408">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C409">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>HUEJUQUILLA EL ALTO</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C410">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>HUEJÚCAR</t>
+          <t>Huejúcar</t>
         </is>
       </c>
       <c r="C411">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>IXTLAHUACÁN DEL RÍO</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C412">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>JESÚS MARÍA</t>
+          <t>Jesús María</t>
         </is>
       </c>
       <c r="C413">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>JILOTLÁN DE LOS DOLORES</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C414">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>JUCHITLÁN</t>
+          <t>Juchitlán</t>
         </is>
       </c>
       <c r="C415">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>LA BARCA</t>
+          <t>La Barca</t>
         </is>
       </c>
       <c r="C416">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>LA HUERTA</t>
+          <t>La Huerta</t>
         </is>
       </c>
       <c r="C417">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>LA MANZANILLA DE LA PAZ</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C418">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C419">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>Magdalena</t>
         </is>
       </c>
       <c r="C420">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>MASCOTA</t>
+          <t>Mascota</t>
         </is>
       </c>
       <c r="C421">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>MAZAMITLA</t>
+          <t>Mazamitla</t>
         </is>
       </c>
       <c r="C422">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>MIXTLÁN</t>
+          <t>Mixtlán</t>
         </is>
       </c>
       <c r="C423">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C424">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>OCOTLÁN</t>
+          <t>Ocotlán</t>
         </is>
       </c>
       <c r="C425">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>OJUELOS DE JALISCO</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C426">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>PONCITLÁN</t>
+          <t>Poncitlán</t>
         </is>
       </c>
       <c r="C427">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>PUERTO VALLARTA</t>
+          <t>Puerto Vallarta</t>
         </is>
       </c>
       <c r="C428">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>QUITUPAN</t>
+          <t>Quitupan</t>
         </is>
       </c>
       <c r="C429">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>SAN IGNACIO CERRO GORDO</t>
+          <t>San Ignacio Cerro Gordo</t>
         </is>
       </c>
       <c r="C430">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LOS LAGOS</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C431">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>SAN MARTÍN HIDALGO</t>
+          <t>San Martín Hidalgo</t>
         </is>
       </c>
       <c r="C432">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>SAN MIGUEL EL ALTO</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C433">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>SAN PEDRO</t>
+          <t>San Pedro</t>
         </is>
       </c>
       <c r="C434">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>SAN PEDRO TLAQUEPAQUE</t>
+          <t>San Pedro Tlaquepaque</t>
         </is>
       </c>
       <c r="C435">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN DEL OESTE</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C436">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>TALA</t>
+          <t>Tala</t>
         </is>
       </c>
       <c r="C437">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>TALPA DE ALLENDE</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C438">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>TAMAZULA DE GORDIANO</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>TECALITLÁN</t>
+          <t>Tecalitlán</t>
         </is>
       </c>
       <c r="C440">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>TEOCALTICHE</t>
+          <t>Teocaltiche</t>
         </is>
       </c>
       <c r="C441">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>TEPATITLÁN DE MORELOS</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C442">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>TLAJOMULCO DE ZÚÑIGA</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>TOMATLÁN</t>
+          <t>Tomatlán</t>
         </is>
       </c>
       <c r="C444">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C445">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>TONAYA</t>
+          <t>Tonaya</t>
         </is>
       </c>
       <c r="C446">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>TONILA</t>
+          <t>Tonila</t>
         </is>
       </c>
       <c r="C447">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>TOTOTLÁN</t>
+          <t>Tototlán</t>
         </is>
       </c>
       <c r="C448">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>UNIÓN DE SAN ANTONIO</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C449">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>UNIÓN DE TULA</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C450">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>VILLA CORONA</t>
+          <t>Villa Corona</t>
         </is>
       </c>
       <c r="C451">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>YAHUALICA DE GONZÁLEZ GALLO</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C452">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C453">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>ZAPOTLANEJO</t>
+          <t>Zapotlanejo</t>
         </is>
       </c>
       <c r="C454">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN EL GRANDE</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C455">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C456">
@@ -6372,12 +6372,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>ACUITZIO</t>
+          <t>Acuitzio</t>
         </is>
       </c>
       <c r="C457">
@@ -6390,7 +6390,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>AGUILILLA</t>
+          <t>Aguililla</t>
         </is>
       </c>
       <c r="C458">
@@ -6403,7 +6403,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>ANGANGUEO</t>
+          <t>Angangueo</t>
         </is>
       </c>
       <c r="C459">
@@ -6416,7 +6416,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C460">
@@ -6429,7 +6429,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>APORO</t>
+          <t>Aporo</t>
         </is>
       </c>
       <c r="C461">
@@ -6442,7 +6442,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>AQUILA</t>
+          <t>Aquila</t>
         </is>
       </c>
       <c r="C462">
@@ -6455,7 +6455,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>ARIO</t>
+          <t>Ario</t>
         </is>
       </c>
       <c r="C463">
@@ -6468,7 +6468,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>BUENAVISTA</t>
+          <t>Buenavista</t>
         </is>
       </c>
       <c r="C464">
@@ -6481,7 +6481,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>CARÁCUARO</t>
+          <t>Carácuaro</t>
         </is>
       </c>
       <c r="C465">
@@ -6494,7 +6494,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>CHARAPAN</t>
+          <t>Charapan</t>
         </is>
       </c>
       <c r="C466">
@@ -6507,7 +6507,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>CHARO</t>
+          <t>Charo</t>
         </is>
       </c>
       <c r="C467">
@@ -6520,7 +6520,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>CHERÁN</t>
+          <t>Cherán</t>
         </is>
       </c>
       <c r="C468">
@@ -6533,7 +6533,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>CHILCHOTA</t>
+          <t>Chilchota</t>
         </is>
       </c>
       <c r="C469">
@@ -6546,7 +6546,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>CHUCÁNDIRO</t>
+          <t>Chucándiro</t>
         </is>
       </c>
       <c r="C470">
@@ -6559,7 +6559,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>CHURUMUCO</t>
+          <t>Churumuco</t>
         </is>
       </c>
       <c r="C471">
@@ -6572,7 +6572,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>COAHUAYANA</t>
+          <t>Coahuayana</t>
         </is>
       </c>
       <c r="C472">
@@ -6585,7 +6585,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>COALCOMÁN DE VÁZQUEZ PALLARES</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C473">
@@ -6598,7 +6598,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>COENEO</t>
+          <t>Coeneo</t>
         </is>
       </c>
       <c r="C474">
@@ -6611,7 +6611,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>CONTEPEC</t>
+          <t>Contepec</t>
         </is>
       </c>
       <c r="C475">
@@ -6624,7 +6624,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>COTIJA</t>
+          <t>Cotija</t>
         </is>
       </c>
       <c r="C476">
@@ -6637,7 +6637,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>EPITACIO HUERTA</t>
+          <t>Epitacio Huerta</t>
         </is>
       </c>
       <c r="C477">
@@ -6650,7 +6650,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>ERONGARÍCUARO</t>
+          <t>Erongarícuaro</t>
         </is>
       </c>
       <c r="C478">
@@ -6663,7 +6663,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>GABRIEL ZAMORA</t>
+          <t>Gabriel Zamora</t>
         </is>
       </c>
       <c r="C479">
@@ -6676,7 +6676,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C480">
@@ -6689,7 +6689,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>HUANDACAREO</t>
+          <t>Huandacareo</t>
         </is>
       </c>
       <c r="C481">
@@ -6702,7 +6702,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>HUETAMO</t>
+          <t>Huetamo</t>
         </is>
       </c>
       <c r="C482">
@@ -6715,7 +6715,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>INDAPARAPEO</t>
+          <t>Indaparapeo</t>
         </is>
       </c>
       <c r="C483">
@@ -6728,7 +6728,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>IRIMBO</t>
+          <t>Irimbo</t>
         </is>
       </c>
       <c r="C484">
@@ -6741,7 +6741,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>JACONA</t>
+          <t>Jacona</t>
         </is>
       </c>
       <c r="C485">
@@ -6754,7 +6754,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>JIMÉNEZ</t>
+          <t>Jiménez</t>
         </is>
       </c>
       <c r="C486">
@@ -6767,7 +6767,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>JIQUILPAN</t>
+          <t>Jiquilpan</t>
         </is>
       </c>
       <c r="C487">
@@ -6780,7 +6780,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>JOSÉ SIXTO VERDUZCO</t>
+          <t>José Sixto Verduzco</t>
         </is>
       </c>
       <c r="C488">
@@ -6793,7 +6793,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>JUÁREZ</t>
+          <t>Juárez</t>
         </is>
       </c>
       <c r="C489">
@@ -6806,7 +6806,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>LA PIEDAD</t>
+          <t>La Piedad</t>
         </is>
       </c>
       <c r="C490">
@@ -6819,7 +6819,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>LAGUNILLAS</t>
+          <t>Lagunillas</t>
         </is>
       </c>
       <c r="C491">
@@ -6832,7 +6832,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>LOS REYES</t>
+          <t>Los Reyes</t>
         </is>
       </c>
       <c r="C492">
@@ -6845,7 +6845,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C493">
@@ -6858,7 +6858,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>MADERO</t>
+          <t>Madero</t>
         </is>
       </c>
       <c r="C494">
@@ -6871,7 +6871,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>MARAVATÍO</t>
+          <t>Maravatío</t>
         </is>
       </c>
       <c r="C495">
@@ -6884,7 +6884,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>MARCOS CASTELLANOS</t>
+          <t>Marcos Castellanos</t>
         </is>
       </c>
       <c r="C496">
@@ -6897,7 +6897,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C497">
@@ -6910,7 +6910,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>MÚGICA</t>
+          <t>Múgica</t>
         </is>
       </c>
       <c r="C498">
@@ -6923,7 +6923,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>NAHUATZEN</t>
+          <t>Nahuatzen</t>
         </is>
       </c>
       <c r="C499">
@@ -6936,7 +6936,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C500">
@@ -6949,7 +6949,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>NOCUPÉTARO</t>
+          <t>Nocupétaro</t>
         </is>
       </c>
       <c r="C501">
@@ -6962,7 +6962,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C502">
@@ -6975,7 +6975,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>PARACHO</t>
+          <t>Paracho</t>
         </is>
       </c>
       <c r="C503">
@@ -6988,7 +6988,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>PARÁCUARO</t>
+          <t>Parácuaro</t>
         </is>
       </c>
       <c r="C504">
@@ -7001,7 +7001,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>PERIBÁN</t>
+          <t>Peribán</t>
         </is>
       </c>
       <c r="C505">
@@ -7014,7 +7014,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>PURUÁNDIRO</t>
+          <t>Puruándiro</t>
         </is>
       </c>
       <c r="C506">
@@ -7027,7 +7027,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>PURÉPERO</t>
+          <t>Purépero</t>
         </is>
       </c>
       <c r="C507">
@@ -7040,7 +7040,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>PÁTZCUARO</t>
+          <t>Pátzcuaro</t>
         </is>
       </c>
       <c r="C508">
@@ -7053,7 +7053,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>QUERÉNDARO</t>
+          <t>Queréndaro</t>
         </is>
       </c>
       <c r="C509">
@@ -7066,7 +7066,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>QUIROGA</t>
+          <t>Quiroga</t>
         </is>
       </c>
       <c r="C510">
@@ -7079,7 +7079,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>SAHUAYO</t>
+          <t>Sahuayo</t>
         </is>
       </c>
       <c r="C511">
@@ -7092,7 +7092,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>SAN LUCAS</t>
+          <t>San Lucas</t>
         </is>
       </c>
       <c r="C512">
@@ -7105,7 +7105,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>SANTA ANA MAYA</t>
+          <t>Santa Ana Maya</t>
         </is>
       </c>
       <c r="C513">
@@ -7118,7 +7118,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>SENGUIO</t>
+          <t>Senguio</t>
         </is>
       </c>
       <c r="C514">
@@ -7131,7 +7131,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>SUSUPUATO</t>
+          <t>Susupuato</t>
         </is>
       </c>
       <c r="C515">
@@ -7144,7 +7144,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>TACÁMBARO</t>
+          <t>Tacámbaro</t>
         </is>
       </c>
       <c r="C516">
@@ -7157,7 +7157,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>TANCÍTARO</t>
+          <t>Tancítaro</t>
         </is>
       </c>
       <c r="C517">
@@ -7170,7 +7170,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>TANGANCÍCUARO</t>
+          <t>Tangancícuaro</t>
         </is>
       </c>
       <c r="C518">
@@ -7183,7 +7183,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>TARETAN</t>
+          <t>Taretan</t>
         </is>
       </c>
       <c r="C519">
@@ -7196,7 +7196,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>TEPALCATEPEC</t>
+          <t>Tepalcatepec</t>
         </is>
       </c>
       <c r="C520">
@@ -7209,7 +7209,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>TINGUINDÍN</t>
+          <t>Tinguindín</t>
         </is>
       </c>
       <c r="C521">
@@ -7222,7 +7222,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>TIQUICHEO DE NICOLÁS ROMERO</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C522">
@@ -7235,7 +7235,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>TLALPUJAHUA</t>
+          <t>Tlalpujahua</t>
         </is>
       </c>
       <c r="C523">
@@ -7248,7 +7248,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>TLAZAZALCA</t>
+          <t>Tlazazalca</t>
         </is>
       </c>
       <c r="C524">
@@ -7261,7 +7261,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>TURICATO</t>
+          <t>Turicato</t>
         </is>
       </c>
       <c r="C525">
@@ -7274,7 +7274,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C526">
@@ -7287,7 +7287,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>TUZANTLA</t>
+          <t>Tuzantla</t>
         </is>
       </c>
       <c r="C527">
@@ -7300,7 +7300,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>TZINTZUNTZAN</t>
+          <t>Tzintzuntzan</t>
         </is>
       </c>
       <c r="C528">
@@ -7313,7 +7313,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>TZITZIO</t>
+          <t>Tzitzio</t>
         </is>
       </c>
       <c r="C529">
@@ -7326,7 +7326,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>URUAPAN</t>
+          <t>Uruapan</t>
         </is>
       </c>
       <c r="C530">
@@ -7339,7 +7339,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C531">
@@ -7352,7 +7352,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>VILLAMAR</t>
+          <t>Villamar</t>
         </is>
       </c>
       <c r="C532">
@@ -7365,7 +7365,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>YURÉCUARO</t>
+          <t>Yurécuaro</t>
         </is>
       </c>
       <c r="C533">
@@ -7378,7 +7378,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
+          <t>Zacapu</t>
         </is>
       </c>
       <c r="C534">
@@ -7391,7 +7391,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>ZAMORA</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C535">
@@ -7404,7 +7404,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>ZINAPÉCUARO</t>
+          <t>Zinapécuaro</t>
         </is>
       </c>
       <c r="C536">
@@ -7417,7 +7417,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>ZIRACUARETIRO</t>
+          <t>Ziracuaretiro</t>
         </is>
       </c>
       <c r="C537">
@@ -7430,7 +7430,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>ZITÁCUARO</t>
+          <t>Zitácuaro</t>
         </is>
       </c>
       <c r="C538">
@@ -7443,7 +7443,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C539">
@@ -7456,7 +7456,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C540">
@@ -7469,12 +7469,12 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>AXOCHIAPAN</t>
+          <t>Axochiapan</t>
         </is>
       </c>
       <c r="C541">
@@ -7487,7 +7487,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>AYALA</t>
+          <t>Ayala</t>
         </is>
       </c>
       <c r="C542">
@@ -7500,7 +7500,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C543">
@@ -7513,7 +7513,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C544">
@@ -7526,7 +7526,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C545">
@@ -7539,7 +7539,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>JANTETELCO</t>
+          <t>Jantetelco</t>
         </is>
       </c>
       <c r="C546">
@@ -7552,7 +7552,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>JIUTEPEC</t>
+          <t>Jiutepec</t>
         </is>
       </c>
       <c r="C547">
@@ -7565,7 +7565,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>JOJUTLA</t>
+          <t>Jojutla</t>
         </is>
       </c>
       <c r="C548">
@@ -7578,7 +7578,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>JONACATEPEC</t>
+          <t>Jonacatepec</t>
         </is>
       </c>
       <c r="C549">
@@ -7591,7 +7591,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>MIACATLÁN</t>
+          <t>Miacatlán</t>
         </is>
       </c>
       <c r="C550">
@@ -7604,7 +7604,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>OCUITUCO</t>
+          <t>Ocuituco</t>
         </is>
       </c>
       <c r="C551">
@@ -7617,7 +7617,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>PUENTE DE IXTLA</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C552">
@@ -7630,7 +7630,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>TEMIXCO</t>
+          <t>Temixco</t>
         </is>
       </c>
       <c r="C553">
@@ -7643,7 +7643,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>TEMOAC</t>
+          <t>Temoac</t>
         </is>
       </c>
       <c r="C554">
@@ -7656,7 +7656,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>TEPOZTLÁN</t>
+          <t>Tepoztlán</t>
         </is>
       </c>
       <c r="C555">
@@ -7669,7 +7669,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>TETELA DEL VOLCÁN</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C556">
@@ -7682,7 +7682,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>TLALTIZAPÁN DE ZAPATA</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C557">
@@ -7695,7 +7695,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>TLAQUILTENANGO</t>
+          <t>Tlaquiltenango</t>
         </is>
       </c>
       <c r="C558">
@@ -7708,7 +7708,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>XOCHITEPEC</t>
+          <t>Xochitepec</t>
         </is>
       </c>
       <c r="C559">
@@ -7721,7 +7721,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>YAUTEPEC</t>
+          <t>Yautepec</t>
         </is>
       </c>
       <c r="C560">
@@ -7734,7 +7734,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>ZACATEPEC</t>
+          <t>Zacatepec</t>
         </is>
       </c>
       <c r="C561">
@@ -7747,7 +7747,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>ZACUALPAN DE AMILPAS</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C562">
@@ -7760,7 +7760,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C563">
@@ -7773,12 +7773,12 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>ACAPONETA</t>
+          <t>Acaponeta</t>
         </is>
       </c>
       <c r="C564">
@@ -7791,7 +7791,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>COMPOSTELA</t>
+          <t>Compostela</t>
         </is>
       </c>
       <c r="C565">
@@ -7804,7 +7804,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>HUAJICORI</t>
+          <t>Huajicori</t>
         </is>
       </c>
       <c r="C566">
@@ -7817,7 +7817,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>SAN BLAS</t>
+          <t>San Blas</t>
         </is>
       </c>
       <c r="C567">
@@ -7830,7 +7830,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>SAN PEDRO LAGUNILLAS</t>
+          <t>San Pedro Lagunillas</t>
         </is>
       </c>
       <c r="C568">
@@ -7843,7 +7843,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL ORO</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C569">
@@ -7856,7 +7856,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C570">
@@ -7869,7 +7869,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>TEPIC</t>
+          <t>Tepic</t>
         </is>
       </c>
       <c r="C571">
@@ -7882,7 +7882,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C572">
@@ -7895,7 +7895,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C573">
@@ -7908,12 +7908,12 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>AGUALEGUAS</t>
+          <t>Agualeguas</t>
         </is>
       </c>
       <c r="C574">
@@ -7926,7 +7926,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>APODACA</t>
+          <t>Apodaca</t>
         </is>
       </c>
       <c r="C575">
@@ -7939,7 +7939,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>CADEREYTA JIMÉNEZ</t>
+          <t>Cadereyta Jiménez</t>
         </is>
       </c>
       <c r="C576">
@@ -7952,7 +7952,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>DOCTOR ARROYO</t>
+          <t>Doctor Arroyo</t>
         </is>
       </c>
       <c r="C577">
@@ -7965,7 +7965,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>GENERAL TERÁN</t>
+          <t>General Terán</t>
         </is>
       </c>
       <c r="C578">
@@ -7978,7 +7978,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>GENERAL TREVIÑO</t>
+          <t>General Treviño</t>
         </is>
       </c>
       <c r="C579">
@@ -7991,7 +7991,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>GENERAL ZARAGOZA</t>
+          <t>General Zaragoza</t>
         </is>
       </c>
       <c r="C580">
@@ -8004,7 +8004,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C581">
@@ -8017,7 +8017,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>LINARES</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="C582">
@@ -8030,7 +8030,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>MIER Y NORIEGA</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C583">
@@ -8043,7 +8043,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>MONTEMORELOS</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C584">
@@ -8056,7 +8056,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C585">
@@ -8069,7 +8069,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>PARÁS</t>
+          <t>Parás</t>
         </is>
       </c>
       <c r="C586">
@@ -8082,7 +8082,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>SABINAS HIDALGO</t>
+          <t>Sabinas Hidalgo</t>
         </is>
       </c>
       <c r="C587">
@@ -8095,7 +8095,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS DE LOS GARZA</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C588">
@@ -8108,7 +8108,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>SAN PEDRO GARZA GARCÍA</t>
+          <t>San Pedro Garza García</t>
         </is>
       </c>
       <c r="C589">
@@ -8121,7 +8121,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C590">
@@ -8134,12 +8134,12 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>ACATLÁN DE PÉREZ FIGUEROA</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C591">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>ASUNCIÓN NOCHIXTLÁN</t>
+          <t>Asunción Nochixtlán</t>
         </is>
       </c>
       <c r="C592">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>AYOTZINTEPEC</t>
+          <t>Ayotzintepec</t>
         </is>
       </c>
       <c r="C593">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>CANDELARIA LOXICHA</t>
+          <t>Candelaria Loxicha</t>
         </is>
       </c>
       <c r="C594">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>CHALCATONGO DE HIDALGO</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>COSOLAPA</t>
+          <t>Cosolapa</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>GUELATAO DE JUÁREZ</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C597">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>GUEVEA DE HUMBOLDT</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C598">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE EJUTLA DE CRESPO</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C599">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE HUAJUAPAN DE LEÓN</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE JUCHITÁN DE ZARAGOZA</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE TLAXIACO</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>HUAJUAPAN DE LEÓN</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>IXTLÁN DE JUÁREZ</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>LOMA BONITA</t>
+          <t>Loma Bonita</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>MARISCALA DE JUÁREZ</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C606">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>MATÍAS ROMERO AVENDAÑO</t>
+          <t>Matías Romero Avendaño</t>
         </is>
       </c>
       <c r="C607">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>MESONES HIDALGO</t>
+          <t>Mesones Hidalgo</t>
         </is>
       </c>
       <c r="C608">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>MIAHUATLÁN DE PORFIRIO DÍAZ</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C609">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C610">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C611">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>OCOTLÁN DE MORELOS</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C612">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>SALINA CRUZ</t>
+          <t>Salina Cruz</t>
         </is>
       </c>
       <c r="C613">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN CHAYUCO</t>
+          <t>San Agustín Chayuco</t>
         </is>
       </c>
       <c r="C614">
@@ -8451,7 +8451,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN LOXICHA</t>
+          <t>San Agustín Loxicha</t>
         </is>
       </c>
       <c r="C615">
@@ -8464,7 +8464,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>SAN ANTONINO EL ALTO</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C616">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>SAN ANTONINO MONTE VERDE</t>
+          <t>San Antonino Monte Verde</t>
         </is>
       </c>
       <c r="C617">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>SAN ANTONIO HUITEPEC</t>
+          <t>San Antonio Huitepec</t>
         </is>
       </c>
       <c r="C618">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>SAN ANTONIO TEPETLAPA</t>
+          <t>San Antonio Tepetlapa</t>
         </is>
       </c>
       <c r="C619">
@@ -8516,7 +8516,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>SAN CARLOS YAUTEPEC</t>
+          <t>San Carlos Yautepec</t>
         </is>
       </c>
       <c r="C620">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO JALTEPETONGO</t>
+          <t>San Francisco Jaltepetongo</t>
         </is>
       </c>
       <c r="C621">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO LOGUECHE</t>
+          <t>San Francisco Logueche</t>
         </is>
       </c>
       <c r="C622">
@@ -8555,7 +8555,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO OZOLOTEPEC</t>
+          <t>San Francisco Ozolotepec</t>
         </is>
       </c>
       <c r="C623">
@@ -8568,7 +8568,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO TLAPANCINGO</t>
+          <t>San Francisco Tlapancingo</t>
         </is>
       </c>
       <c r="C624">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO COATLÁN</t>
+          <t>San Jerónimo Coatlán</t>
         </is>
       </c>
       <c r="C625">
@@ -8594,7 +8594,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>SAN JERÓNIMO TLACOCHAHUAYA</t>
+          <t>San Jerónimo Tlacochahuaya</t>
         </is>
       </c>
       <c r="C626">
@@ -8607,7 +8607,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>SAN JOSÉ CHILTEPEC</t>
+          <t>San José Chiltepec</t>
         </is>
       </c>
       <c r="C627">
@@ -8620,7 +8620,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA COIXTLAHUACA</t>
+          <t>San Juan Bautista Coixtlahuaca</t>
         </is>
       </c>
       <c r="C628">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C629">
@@ -8646,7 +8646,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA VALLE NACIONAL</t>
+          <t>San Juan Bautista Valle Nacional</t>
         </is>
       </c>
       <c r="C630">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>SAN JUAN COLORADO</t>
+          <t>San Juan Colorado</t>
         </is>
       </c>
       <c r="C631">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>SAN JUAN COTZOCÓN</t>
+          <t>San Juan Cotzocón</t>
         </is>
       </c>
       <c r="C632">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>SAN JUAN GUICHICOVI</t>
+          <t>San Juan Guichicovi</t>
         </is>
       </c>
       <c r="C633">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>SAN JUAN MAZATLÁN</t>
+          <t>San Juan Mazatlán</t>
         </is>
       </c>
       <c r="C634">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>SAN JUAN MIXTEPEC -DTO. 08 -</t>
+          <t>San Juan Mixtepec -Dto. 08 -</t>
         </is>
       </c>
       <c r="C635">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>SAN JUAN ÑUMÍ</t>
+          <t>San Juan Ñumí</t>
         </is>
       </c>
       <c r="C636">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>SAN LUCAS OJITLÁN</t>
+          <t>San Lucas Ojitlán</t>
         </is>
       </c>
       <c r="C637">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>SAN MARTÍN ZACATEPEC</t>
+          <t>San Martín Zacatepec</t>
         </is>
       </c>
       <c r="C638">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>SAN MATEO ETLATONGO</t>
+          <t>San Mateo Etlatongo</t>
         </is>
       </c>
       <c r="C639">
@@ -8776,7 +8776,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>SAN MIGUEL AMATITLÁN</t>
+          <t>San Miguel Amatitlán</t>
         </is>
       </c>
       <c r="C640">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DEL PUERTO</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C641">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>SAN MIGUEL QUETZALTEPEC</t>
+          <t>San Miguel Quetzaltepec</t>
         </is>
       </c>
       <c r="C642">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>SAN MIGUEL SOYALTEPEC</t>
+          <t>San Miguel Soyaltepec</t>
         </is>
       </c>
       <c r="C643">
@@ -8828,7 +8828,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>SAN PABLO ETLA</t>
+          <t>San Pablo Etla</t>
         </is>
       </c>
       <c r="C644">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>SAN PABLO HUITZO</t>
+          <t>San Pablo Huitzo</t>
         </is>
       </c>
       <c r="C645">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>SAN PEDRO AMUZGOS</t>
+          <t>San Pedro Amuzgos</t>
         </is>
       </c>
       <c r="C646">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>SAN PEDRO CAJONOS</t>
+          <t>San Pedro Cajonos</t>
         </is>
       </c>
       <c r="C647">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>SAN PEDRO EL ALTO</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C648">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>SAN PEDRO MIXTEPEC -DTO. 22 -</t>
+          <t>San Pedro Mixtepec -Dto. 22 -</t>
         </is>
       </c>
       <c r="C649">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>SAN PEDRO MIXTEPEC -DTO. 26 -</t>
+          <t>San Pedro Mixtepec -Dto. 26 -</t>
         </is>
       </c>
       <c r="C650">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>SAN PEDRO NOPALA</t>
+          <t>San Pedro Nopala</t>
         </is>
       </c>
       <c r="C651">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>SAN PEDRO POCHUTLA</t>
+          <t>San Pedro Pochutla</t>
         </is>
       </c>
       <c r="C652">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>SAN PEDRO SOCHIÁPAM</t>
+          <t>San Pedro Sochiápam</t>
         </is>
       </c>
       <c r="C653">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>SAN PEDRO TOTOLÁPAM</t>
+          <t>San Pedro Totolápam</t>
         </is>
       </c>
       <c r="C654">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>SAN PEDRO Y SAN PABLO TEQUIXTEPEC</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C655">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN COATLÁN</t>
+          <t>San Sebastián Coatlán</t>
         </is>
       </c>
       <c r="C656">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN IXCAPA</t>
+          <t>San Sebastián Ixcapa</t>
         </is>
       </c>
       <c r="C657">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN TECOMAXTLAHUACA</t>
+          <t>San Sebastián Tecomaxtlahuaca</t>
         </is>
       </c>
       <c r="C658">
@@ -9023,7 +9023,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>SAN SIMÓN ALMOLONGAS</t>
+          <t>San Simón Almolongas</t>
         </is>
       </c>
       <c r="C659">
@@ -9036,7 +9036,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>SAN VICENTE LACHIXÍO</t>
+          <t>San Vicente Lachixío</t>
         </is>
       </c>
       <c r="C660">
@@ -9049,7 +9049,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>SANTA CATARINA JUQUILA</t>
+          <t>Santa Catarina Juquila</t>
         </is>
       </c>
       <c r="C661">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>SANTA CATARINA MECHOACÁN</t>
+          <t>Santa Catarina Mechoacán</t>
         </is>
       </c>
       <c r="C662">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>SANTA CRUZ ITUNDUJIA</t>
+          <t>Santa Cruz Itundujia</t>
         </is>
       </c>
       <c r="C663">
@@ -9088,7 +9088,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>SANTA CRUZ XITLA</t>
+          <t>Santa Cruz Xitla</t>
         </is>
       </c>
       <c r="C664">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>SANTA INÉS DEL MONTE</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C665">
@@ -9114,7 +9114,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>SANTA MARÍA CHIMALAPA</t>
+          <t>Santa María Chimalapa</t>
         </is>
       </c>
       <c r="C666">
@@ -9127,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>SANTA MARÍA ECATEPEC</t>
+          <t>Santa María Ecatepec</t>
         </is>
       </c>
       <c r="C667">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>SANTA MARÍA HUATULCO</t>
+          <t>Santa María Huatulco</t>
         </is>
       </c>
       <c r="C668">
@@ -9153,7 +9153,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>SANTA MARÍA HUAZOLOTITLÁN</t>
+          <t>Santa María Huazolotitlán</t>
         </is>
       </c>
       <c r="C669">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>SANTA MARÍA IPALAPA</t>
+          <t>Santa María Ipalapa</t>
         </is>
       </c>
       <c r="C670">
@@ -9179,7 +9179,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>SANTA MARÍA JACATEPEC</t>
+          <t>Santa María Jacatepec</t>
         </is>
       </c>
       <c r="C671">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>SANTA MARÍA OZOLOTEPEC</t>
+          <t>Santa María Ozolotepec</t>
         </is>
       </c>
       <c r="C672">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>SANTA MARÍA PETAPA</t>
+          <t>Santa María Petapa</t>
         </is>
       </c>
       <c r="C673">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TONAMECA</t>
+          <t>Santa María Tonameca</t>
         </is>
       </c>
       <c r="C674">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>SANTA MARÍA YOLOTEPEC</t>
+          <t>Santa María Yolotepec</t>
         </is>
       </c>
       <c r="C675">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>SANTA MARÍA ZOQUITLÁN</t>
+          <t>Santa María Zoquitlán</t>
         </is>
       </c>
       <c r="C676">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>SANTIAGO AMOLTEPEC</t>
+          <t>Santiago Amoltepec</t>
         </is>
       </c>
       <c r="C677">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>SANTIAGO AYUQUILILLA</t>
+          <t>Santiago Ayuquililla</t>
         </is>
       </c>
       <c r="C678">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>SANTIAGO CHOÁPAM</t>
+          <t>Santiago Choápam</t>
         </is>
       </c>
       <c r="C679">
@@ -9296,7 +9296,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTEPEC</t>
+          <t>Santiago Ixcuintepec</t>
         </is>
       </c>
       <c r="C680">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C681">
@@ -9322,7 +9322,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>SANTIAGO JOCOTEPEC</t>
+          <t>Santiago Jocotepec</t>
         </is>
       </c>
       <c r="C682">
@@ -9335,7 +9335,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>SANTIAGO JUXTLAHUACA</t>
+          <t>Santiago Juxtlahuaca</t>
         </is>
       </c>
       <c r="C683">
@@ -9348,7 +9348,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>SANTIAGO LACHIGUIRI</t>
+          <t>Santiago Lachiguiri</t>
         </is>
       </c>
       <c r="C684">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>SANTIAGO PINOTEPA NACIONAL</t>
+          <t>Santiago Pinotepa Nacional</t>
         </is>
       </c>
       <c r="C685">
@@ -9374,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>SANTIAGO TETEPEC</t>
+          <t>Santiago Tetepec</t>
         </is>
       </c>
       <c r="C686">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>SANTIAGO TEXTITLÁN</t>
+          <t>Santiago Textitlán</t>
         </is>
       </c>
       <c r="C687">
@@ -9400,7 +9400,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>SANTIAGO YOSONDÚA</t>
+          <t>Santiago Yosondúa</t>
         </is>
       </c>
       <c r="C688">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>SANTIAGO ZACATEPEC</t>
+          <t>Santiago Zacatepec</t>
         </is>
       </c>
       <c r="C689">
@@ -9426,7 +9426,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE MORELOS</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C690">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO ROAYAGA</t>
+          <t>Santo Domingo Roayaga</t>
         </is>
       </c>
       <c r="C691">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEHUANTEPEC</t>
+          <t>Santo Domingo Tehuantepec</t>
         </is>
       </c>
       <c r="C692">
@@ -9465,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TEOJOMULCO</t>
+          <t>Santo Domingo Teojomulco</t>
         </is>
       </c>
       <c r="C693">
@@ -9478,7 +9478,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO TONALÁ</t>
+          <t>Santo Domingo Tonalá</t>
         </is>
       </c>
       <c r="C694">
@@ -9491,7 +9491,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO YANHUITLÁN</t>
+          <t>Santo Domingo Yanhuitlán</t>
         </is>
       </c>
       <c r="C695">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO ZANATEPEC</t>
+          <t>Santo Domingo Zanatepec</t>
         </is>
       </c>
       <c r="C696">
@@ -9517,7 +9517,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>SILACAYOÁPAM</t>
+          <t>Silacayoápam</t>
         </is>
       </c>
       <c r="C697">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>TEOTONGO</t>
+          <t>Teotongo</t>
         </is>
       </c>
       <c r="C698">
@@ -9543,7 +9543,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>TEZOATLÁN DE SEGURA Y LUNA</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C699">
@@ -9556,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>TLACOLULA DE MATAMOROS</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C700">
@@ -9569,7 +9569,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>VILLA DE TAMAZULÁPAM DEL PROGRESO</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C701">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC DE MELCHOR OCAMPO</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C702">
@@ -9595,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>VILLA SOLA DE VEGA</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C703">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>ZIMATLÁN DE ÁLVAREZ</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C704">
@@ -9621,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C705">
@@ -9634,12 +9634,12 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>ACAJETE</t>
+          <t>Acajete</t>
         </is>
       </c>
       <c r="C706">
@@ -9652,7 +9652,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C707">
@@ -9665,7 +9665,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>ACATZINGO</t>
+          <t>Acatzingo</t>
         </is>
       </c>
       <c r="C708">
@@ -9678,7 +9678,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>AMOZOC</t>
+          <t>Amozoc</t>
         </is>
       </c>
       <c r="C709">
@@ -9691,7 +9691,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>ATEMPAN</t>
+          <t>Atempan</t>
         </is>
       </c>
       <c r="C710">
@@ -9704,7 +9704,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C711">
@@ -9717,7 +9717,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>ATZITZIHUACÁN</t>
+          <t>Atzitzihuacán</t>
         </is>
       </c>
       <c r="C712">
@@ -9730,7 +9730,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>CHIAUTLA</t>
+          <t>Chiautla</t>
         </is>
       </c>
       <c r="C713">
@@ -9743,7 +9743,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>CHICHIQUILA</t>
+          <t>Chichiquila</t>
         </is>
       </c>
       <c r="C714">
@@ -9756,7 +9756,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>CHIETLA</t>
+          <t>Chietla</t>
         </is>
       </c>
       <c r="C715">
@@ -9769,7 +9769,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C716">
@@ -9782,7 +9782,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>CHILA</t>
+          <t>Chila</t>
         </is>
       </c>
       <c r="C717">
@@ -9795,7 +9795,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>CHILA DE LA SAL</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C718">
@@ -9808,7 +9808,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>CHINANTLA</t>
+          <t>Chinantla</t>
         </is>
       </c>
       <c r="C719">
@@ -9821,7 +9821,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>CORONANGO</t>
+          <t>Coronango</t>
         </is>
       </c>
       <c r="C720">
@@ -9834,7 +9834,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>COXCATLÁN</t>
+          <t>Coxcatlán</t>
         </is>
       </c>
       <c r="C721">
@@ -9847,7 +9847,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>COYOMEAPAN</t>
+          <t>Coyomeapan</t>
         </is>
       </c>
       <c r="C722">
@@ -9860,7 +9860,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>CUAUTEMPAN</t>
+          <t>Cuautempan</t>
         </is>
       </c>
       <c r="C723">
@@ -9873,7 +9873,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>CUAUTLANCINGO</t>
+          <t>Cuautlancingo</t>
         </is>
       </c>
       <c r="C724">
@@ -9886,7 +9886,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>CUETZALAN DEL PROGRESO</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C725">
@@ -9899,7 +9899,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>CUYOACO</t>
+          <t>Cuyoaco</t>
         </is>
       </c>
       <c r="C726">
@@ -9912,7 +9912,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>EPATLÁN</t>
+          <t>Epatlán</t>
         </is>
       </c>
       <c r="C727">
@@ -9925,7 +9925,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>GENERAL FELIPE ÁNGELES</t>
+          <t>General Felipe Ángeles</t>
         </is>
       </c>
       <c r="C728">
@@ -9938,7 +9938,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>HERMENEGILDO GALEANA</t>
+          <t>Hermenegildo Galeana</t>
         </is>
       </c>
       <c r="C729">
@@ -9951,7 +9951,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>HUAQUECHULA</t>
+          <t>Huaquechula</t>
         </is>
       </c>
       <c r="C730">
@@ -9964,7 +9964,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>HUATLATLAUCA</t>
+          <t>Huatlatlauca</t>
         </is>
       </c>
       <c r="C731">
@@ -9977,7 +9977,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>HUAUCHINANGO</t>
+          <t>Huauchinango</t>
         </is>
       </c>
       <c r="C732">
@@ -9990,7 +9990,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>HUEHUETLA</t>
+          <t>Huehuetla</t>
         </is>
       </c>
       <c r="C733">
@@ -10003,7 +10003,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>HUEJOTZINGO</t>
+          <t>Huejotzingo</t>
         </is>
       </c>
       <c r="C734">
@@ -10016,7 +10016,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>HUEYTAMALCO</t>
+          <t>Hueytamalco</t>
         </is>
       </c>
       <c r="C735">
@@ -10029,7 +10029,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>IXCAMILPA DE GUERRERO</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C736">
@@ -10042,7 +10042,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C737">
@@ -10055,7 +10055,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>JOLALPAN</t>
+          <t>Jolalpan</t>
         </is>
       </c>
       <c r="C738">
@@ -10068,7 +10068,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>JUAN N. MÉNDEZ</t>
+          <t>Juan N. Méndez</t>
         </is>
       </c>
       <c r="C739">
@@ -10081,7 +10081,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>LIBRES</t>
+          <t>Libres</t>
         </is>
       </c>
       <c r="C740">
@@ -10094,7 +10094,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>LOS REYES DE JUÁREZ</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C741">
@@ -10107,7 +10107,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>OCOTEPEC</t>
+          <t>Ocotepec</t>
         </is>
       </c>
       <c r="C742">
@@ -10120,7 +10120,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>PALMAR DE BRAVO</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C743">
@@ -10133,7 +10133,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>PANTEPEC</t>
+          <t>Pantepec</t>
         </is>
       </c>
       <c r="C744">
@@ -10146,7 +10146,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>PETLALCINGO</t>
+          <t>Petlalcingo</t>
         </is>
       </c>
       <c r="C745">
@@ -10159,7 +10159,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C746">
@@ -10172,7 +10172,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>QUECHOLAC</t>
+          <t>Quecholac</t>
         </is>
       </c>
       <c r="C747">
@@ -10185,7 +10185,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS CHOLULA</t>
+          <t>San Andrés Cholula</t>
         </is>
       </c>
       <c r="C748">
@@ -10198,7 +10198,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>SAN GABRIEL CHILAC</t>
+          <t>San Gabriel Chilac</t>
         </is>
       </c>
       <c r="C749">
@@ -10211,7 +10211,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C750">
@@ -10224,7 +10224,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>SAN PEDRO CHOLULA</t>
+          <t>San Pedro Cholula</t>
         </is>
       </c>
       <c r="C751">
@@ -10237,7 +10237,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>SAN SALVADOR EL VERDE</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C752">
@@ -10250,7 +10250,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN TLACOTEPEC</t>
+          <t>San Sebastián Tlacotepec</t>
         </is>
       </c>
       <c r="C753">
@@ -10263,7 +10263,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>SANTA INÉS AHUATEMPAN</t>
+          <t>Santa Inés Ahuatempan</t>
         </is>
       </c>
       <c r="C754">
@@ -10276,7 +10276,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>SANTA ISABEL CHOLULA</t>
+          <t>Santa Isabel Cholula</t>
         </is>
       </c>
       <c r="C755">
@@ -10289,7 +10289,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>SOLTEPEC</t>
+          <t>Soltepec</t>
         </is>
       </c>
       <c r="C756">
@@ -10302,7 +10302,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>TECAMACHALCO</t>
+          <t>Tecamachalco</t>
         </is>
       </c>
       <c r="C757">
@@ -10315,7 +10315,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>TECOMATLÁN</t>
+          <t>Tecomatlán</t>
         </is>
       </c>
       <c r="C758">
@@ -10328,7 +10328,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C759">
@@ -10341,7 +10341,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>TEHUITZINGO</t>
+          <t>Tehuitzingo</t>
         </is>
       </c>
       <c r="C760">
@@ -10354,7 +10354,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>TEOTLALCO</t>
+          <t>Teotlalco</t>
         </is>
       </c>
       <c r="C761">
@@ -10367,7 +10367,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>TEPANCO DE LÓPEZ</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C762">
@@ -10380,7 +10380,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>TEPEACA</t>
+          <t>Tepeaca</t>
         </is>
       </c>
       <c r="C763">
@@ -10393,7 +10393,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>TEPEOJUMA</t>
+          <t>Tepeojuma</t>
         </is>
       </c>
       <c r="C764">
@@ -10406,7 +10406,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>TEPEXI DE RODRÍGUEZ</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C765">
@@ -10419,7 +10419,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>TEPEYAHUALCO</t>
+          <t>Tepeyahualco</t>
         </is>
       </c>
       <c r="C766">
@@ -10432,7 +10432,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>TETELA DE OCAMPO</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C767">
@@ -10445,7 +10445,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>TEZIUTLÁN</t>
+          <t>Teziutlán</t>
         </is>
       </c>
       <c r="C768">
@@ -10458,7 +10458,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>TILAPA</t>
+          <t>Tilapa</t>
         </is>
       </c>
       <c r="C769">
@@ -10471,7 +10471,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>TLACHICHUCA</t>
+          <t>Tlachichuca</t>
         </is>
       </c>
       <c r="C770">
@@ -10484,7 +10484,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>TLACOTEPEC DE BENITO JUÁREZ</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C771">
@@ -10497,7 +10497,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>TLAHUAPAN</t>
+          <t>Tlahuapan</t>
         </is>
       </c>
       <c r="C772">
@@ -10510,7 +10510,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>TLAPACOYA</t>
+          <t>Tlapacoya</t>
         </is>
       </c>
       <c r="C773">
@@ -10523,7 +10523,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>TLATLAUQUITEPEC</t>
+          <t>Tlatlauquitepec</t>
         </is>
       </c>
       <c r="C774">
@@ -10536,7 +10536,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>TOCHIMILCO</t>
+          <t>Tochimilco</t>
         </is>
       </c>
       <c r="C775">
@@ -10549,7 +10549,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>TZICATLACOYAN</t>
+          <t>Tzicatlacoyan</t>
         </is>
       </c>
       <c r="C776">
@@ -10562,7 +10562,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C777">
@@ -10575,7 +10575,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C778">
@@ -10588,7 +10588,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>XAYACATLÁN DE BRAVO</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C779">
@@ -10601,7 +10601,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>XICOTEPEC</t>
+          <t>Xicotepec</t>
         </is>
       </c>
       <c r="C780">
@@ -10614,7 +10614,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>XIUTETELCO</t>
+          <t>Xiutetelco</t>
         </is>
       </c>
       <c r="C781">
@@ -10627,7 +10627,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C782">
@@ -10640,7 +10640,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>ZACATLÁN</t>
+          <t>Zacatlán</t>
         </is>
       </c>
       <c r="C783">
@@ -10653,7 +10653,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>ZARAGOZA</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="C784">
@@ -10666,7 +10666,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>ZAUTLA</t>
+          <t>Zautla</t>
         </is>
       </c>
       <c r="C785">
@@ -10679,7 +10679,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>ZIHUATEUTLA</t>
+          <t>Zihuateutla</t>
         </is>
       </c>
       <c r="C786">
@@ -10692,7 +10692,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>ZINACATEPEC</t>
+          <t>Zinacatepec</t>
         </is>
       </c>
       <c r="C787">
@@ -10705,7 +10705,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C788">
@@ -10718,12 +10718,12 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>CADEREYTA DE MONTES</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C789">
@@ -10736,7 +10736,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>JALPAN DE SERRA</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C790">
@@ -10749,7 +10749,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>LANDA DE MATAMOROS</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C791">
@@ -10762,7 +10762,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>PEDRO ESCOBEDO</t>
+          <t>Pedro Escobedo</t>
         </is>
       </c>
       <c r="C792">
@@ -10775,7 +10775,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>PINAL DE AMOLES</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C793">
@@ -10788,7 +10788,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C794">
@@ -10801,7 +10801,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>SAN JOAQUÍN</t>
+          <t>San Joaquín</t>
         </is>
       </c>
       <c r="C795">
@@ -10814,7 +10814,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C796">
@@ -10827,7 +10827,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>TEQUISQUIAPAN</t>
+          <t>Tequisquiapan</t>
         </is>
       </c>
       <c r="C797">
@@ -10840,7 +10840,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C798">
@@ -10853,12 +10853,12 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C799">
@@ -10871,7 +10871,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C800">
@@ -10884,12 +10884,12 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>AHUALULCO</t>
+          <t>Ahualulco</t>
         </is>
       </c>
       <c r="C801">
@@ -10902,7 +10902,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>ALAQUINES</t>
+          <t>Alaquines</t>
         </is>
       </c>
       <c r="C802">
@@ -10915,7 +10915,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>AQUISMÓN</t>
+          <t>Aquismón</t>
         </is>
       </c>
       <c r="C803">
@@ -10928,7 +10928,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>ARMADILLO DE LOS INFANTE</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C804">
@@ -10941,7 +10941,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>CERRITOS</t>
+          <t>Cerritos</t>
         </is>
       </c>
       <c r="C805">
@@ -10954,7 +10954,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>CIUDAD DEL MAÍZ</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C806">
@@ -10967,7 +10967,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
+          <t>Ciudad Valles</t>
         </is>
       </c>
       <c r="C807">
@@ -10980,7 +10980,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>EBANO</t>
+          <t>Ebano</t>
         </is>
       </c>
       <c r="C808">
@@ -10993,7 +10993,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>EL NARANJO</t>
+          <t>El Naranjo</t>
         </is>
       </c>
       <c r="C809">
@@ -11006,7 +11006,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>GUADALCÁZAR</t>
+          <t>Guadalcázar</t>
         </is>
       </c>
       <c r="C810">
@@ -11019,7 +11019,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>LAGUNILLAS</t>
+          <t>Lagunillas</t>
         </is>
       </c>
       <c r="C811">
@@ -11032,7 +11032,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>MATEHUALA</t>
+          <t>Matehuala</t>
         </is>
       </c>
       <c r="C812">
@@ -11045,7 +11045,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>MEXQUITIC DE CARMONA</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C813">
@@ -11058,7 +11058,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>MOCTEZUMA</t>
+          <t>Moctezuma</t>
         </is>
       </c>
       <c r="C814">
@@ -11071,7 +11071,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>RAYÓN</t>
+          <t>Rayón</t>
         </is>
       </c>
       <c r="C815">
@@ -11084,7 +11084,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>RIOVERDE</t>
+          <t>Rioverde</t>
         </is>
       </c>
       <c r="C816">
@@ -11097,7 +11097,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>Salinas</t>
         </is>
       </c>
       <c r="C817">
@@ -11110,7 +11110,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>SAN ANTONIO</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="C818">
@@ -11123,7 +11123,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>SAN CIRO DE ACOSTA</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C819">
@@ -11136,7 +11136,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C820">
@@ -11149,7 +11149,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS TOLENTINO</t>
+          <t>San Nicolás Tolentino</t>
         </is>
       </c>
       <c r="C821">
@@ -11162,7 +11162,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL RÍO</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C822">
@@ -11175,7 +11175,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>SOLEDAD DE GRACIANO SÁNCHEZ</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C823">
@@ -11188,7 +11188,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>TAMASOPO</t>
+          <t>Tamasopo</t>
         </is>
       </c>
       <c r="C824">
@@ -11201,7 +11201,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>TAMAZUNCHALE</t>
+          <t>Tamazunchale</t>
         </is>
       </c>
       <c r="C825">
@@ -11214,7 +11214,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>TAMPACÁN</t>
+          <t>Tampacán</t>
         </is>
       </c>
       <c r="C826">
@@ -11227,7 +11227,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>TAMPAMOLÓN CORONA</t>
+          <t>Tampamolón Corona</t>
         </is>
       </c>
       <c r="C827">
@@ -11240,7 +11240,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>TAMUÍN</t>
+          <t>Tamuín</t>
         </is>
       </c>
       <c r="C828">
@@ -11253,7 +11253,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>TIERRA NUEVA</t>
+          <t>Tierra Nueva</t>
         </is>
       </c>
       <c r="C829">
@@ -11266,7 +11266,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>VANEGAS</t>
+          <t>Vanegas</t>
         </is>
       </c>
       <c r="C830">
@@ -11279,7 +11279,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>VENADO</t>
+          <t>Venado</t>
         </is>
       </c>
       <c r="C831">
@@ -11292,7 +11292,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>VILLA DE LA PAZ</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C832">
@@ -11305,7 +11305,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>VILLA DE RAMOS</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C833">
@@ -11318,7 +11318,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>VILLA DE REYES</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C834">
@@ -11331,7 +11331,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>XILITLA</t>
+          <t>Xilitla</t>
         </is>
       </c>
       <c r="C835">
@@ -11344,7 +11344,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>ZARAGOZA</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="C836">
@@ -11357,7 +11357,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C837">
@@ -11370,12 +11370,12 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C838">
@@ -11388,7 +11388,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>CONCORDIA</t>
+          <t>Concordia</t>
         </is>
       </c>
       <c r="C839">
@@ -11401,7 +11401,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C840">
@@ -11414,7 +11414,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>EL FUERTE</t>
+          <t>El Fuerte</t>
         </is>
       </c>
       <c r="C841">
@@ -11427,7 +11427,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>ESCUINAPA</t>
+          <t>Escuinapa</t>
         </is>
       </c>
       <c r="C842">
@@ -11440,7 +11440,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>GUASAVE</t>
+          <t>Guasave</t>
         </is>
       </c>
       <c r="C843">
@@ -11453,7 +11453,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>MAZATLÁN</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="C844">
@@ -11466,7 +11466,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>MOCORITO</t>
+          <t>Mocorito</t>
         </is>
       </c>
       <c r="C845">
@@ -11479,7 +11479,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>NAVOLATO</t>
+          <t>Navolato</t>
         </is>
       </c>
       <c r="C846">
@@ -11492,7 +11492,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>ROSARIO</t>
+          <t>Rosario</t>
         </is>
       </c>
       <c r="C847">
@@ -11505,7 +11505,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>SALVADOR ALVARADO</t>
+          <t>Salvador Alvarado</t>
         </is>
       </c>
       <c r="C848">
@@ -11518,7 +11518,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C849">
@@ -11531,12 +11531,12 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>CABORCA</t>
+          <t>Caborca</t>
         </is>
       </c>
       <c r="C850">
@@ -11549,7 +11549,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>CAJEME</t>
+          <t>Cajeme</t>
         </is>
       </c>
       <c r="C851">
@@ -11562,7 +11562,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>GUAYMAS</t>
+          <t>Guaymas</t>
         </is>
       </c>
       <c r="C852">
@@ -11575,7 +11575,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>HERMOSILLO</t>
+          <t>Hermosillo</t>
         </is>
       </c>
       <c r="C853">
@@ -11588,7 +11588,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>IMURIS</t>
+          <t>Imuris</t>
         </is>
       </c>
       <c r="C854">
@@ -11601,7 +11601,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>NOGALES</t>
+          <t>Nogales</t>
         </is>
       </c>
       <c r="C855">
@@ -11614,7 +11614,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>SAN LUIS RÍO COLORADO</t>
+          <t>San Luis Río Colorado</t>
         </is>
       </c>
       <c r="C856">
@@ -11627,7 +11627,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C857">
@@ -11640,12 +11640,12 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>BALANCÁN</t>
+          <t>Balancán</t>
         </is>
       </c>
       <c r="C858">
@@ -11658,7 +11658,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C859">
@@ -11671,7 +11671,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>CUNDUACÁN</t>
+          <t>Cunduacán</t>
         </is>
       </c>
       <c r="C860">
@@ -11684,7 +11684,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C861">
@@ -11697,7 +11697,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C862">
@@ -11710,7 +11710,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>JALAPA</t>
+          <t>Jalapa</t>
         </is>
       </c>
       <c r="C863">
@@ -11723,7 +11723,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>MACUSPANA</t>
+          <t>Macuspana</t>
         </is>
       </c>
       <c r="C864">
@@ -11736,7 +11736,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>TENOSIQUE</t>
+          <t>Tenosique</t>
         </is>
       </c>
       <c r="C865">
@@ -11749,7 +11749,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C866">
@@ -11762,12 +11762,12 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>ABASOLO</t>
+          <t>Abasolo</t>
         </is>
       </c>
       <c r="C867">
@@ -11780,7 +11780,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>ALTAMIRA</t>
+          <t>Altamira</t>
         </is>
       </c>
       <c r="C868">
@@ -11793,7 +11793,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>ANTIGUO MORELOS</t>
+          <t>Antiguo Morelos</t>
         </is>
       </c>
       <c r="C869">
@@ -11806,7 +11806,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>BUSTAMANTE</t>
+          <t>Bustamante</t>
         </is>
       </c>
       <c r="C870">
@@ -11819,7 +11819,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>CAMARGO</t>
+          <t>Camargo</t>
         </is>
       </c>
       <c r="C871">
@@ -11832,7 +11832,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>CIUDAD MADERO</t>
+          <t>Ciudad Madero</t>
         </is>
       </c>
       <c r="C872">
@@ -11845,7 +11845,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>EL MANTE</t>
+          <t>El Mante</t>
         </is>
       </c>
       <c r="C873">
@@ -11858,7 +11858,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>GONZÁLEZ</t>
+          <t>González</t>
         </is>
       </c>
       <c r="C874">
@@ -11871,7 +11871,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>GUSTAVO DÍAZ ORDAZ</t>
+          <t>Gustavo Díaz Ordaz</t>
         </is>
       </c>
       <c r="C875">
@@ -11884,7 +11884,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>GÓMEZ FARÍAS</t>
+          <t>Gómez Farías</t>
         </is>
       </c>
       <c r="C876">
@@ -11897,7 +11897,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C877">
@@ -11910,7 +11910,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>JAUMAVE</t>
+          <t>Jaumave</t>
         </is>
       </c>
       <c r="C878">
@@ -11923,7 +11923,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C879">
@@ -11936,7 +11936,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>MIGUEL ALEMÁN</t>
+          <t>Miguel Alemán</t>
         </is>
       </c>
       <c r="C880">
@@ -11949,7 +11949,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>MIQUIHUANA</t>
+          <t>Miquihuana</t>
         </is>
       </c>
       <c r="C881">
@@ -11962,7 +11962,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>NUEVO LAREDO</t>
+          <t>Nuevo Laredo</t>
         </is>
       </c>
       <c r="C882">
@@ -11975,7 +11975,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>NUEVO MORELOS</t>
+          <t>Nuevo Morelos</t>
         </is>
       </c>
       <c r="C883">
@@ -11988,7 +11988,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>OCAMPO</t>
+          <t>Ocampo</t>
         </is>
       </c>
       <c r="C884">
@@ -12001,7 +12001,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>PALMILLAS</t>
+          <t>Palmillas</t>
         </is>
       </c>
       <c r="C885">
@@ -12014,7 +12014,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>REYNOSA</t>
+          <t>Reynosa</t>
         </is>
       </c>
       <c r="C886">
@@ -12027,7 +12027,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>RÍO BRAVO</t>
+          <t>Río Bravo</t>
         </is>
       </c>
       <c r="C887">
@@ -12040,7 +12040,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>SAN FERNANDO</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="C888">
@@ -12053,7 +12053,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C889">
@@ -12066,7 +12066,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>TULA</t>
+          <t>Tula</t>
         </is>
       </c>
       <c r="C890">
@@ -12079,7 +12079,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>VALLE HERMOSO</t>
+          <t>Valle Hermoso</t>
         </is>
       </c>
       <c r="C891">
@@ -12092,7 +12092,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>VICTORIA</t>
+          <t>Victoria</t>
         </is>
       </c>
       <c r="C892">
@@ -12105,7 +12105,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>VILLAGRÁN</t>
+          <t>Villagrán</t>
         </is>
       </c>
       <c r="C893">
@@ -12118,7 +12118,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>XICOTÉNCATL</t>
+          <t>Xicoténcatl</t>
         </is>
       </c>
       <c r="C894">
@@ -12131,7 +12131,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C895">
@@ -12144,12 +12144,12 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>APIZACO</t>
+          <t>Apizaco</t>
         </is>
       </c>
       <c r="C896">
@@ -12162,7 +12162,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>CALPULALPAN</t>
+          <t>Calpulalpan</t>
         </is>
       </c>
       <c r="C897">
@@ -12175,7 +12175,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>CHIAUTEMPAN</t>
+          <t>Chiautempan</t>
         </is>
       </c>
       <c r="C898">
@@ -12188,7 +12188,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>CONTLA DE JUAN CUAMATZI</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C899">
@@ -12201,7 +12201,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>HUAMANTLA</t>
+          <t>Huamantla</t>
         </is>
       </c>
       <c r="C900">
@@ -12214,7 +12214,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>IXTENCO</t>
+          <t>Ixtenco</t>
         </is>
       </c>
       <c r="C901">
@@ -12227,7 +12227,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>NANACAMILPA DE MARIANO ARISTA</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C902">
@@ -12240,7 +12240,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C903">
@@ -12253,7 +12253,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>PAPALOTLA DE XICOHTÉNCATL</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C904">
@@ -12266,7 +12266,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>SAN PABLO DEL MONTE</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C905">
@@ -12279,7 +12279,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>SANTA CATARINA AYOMETLA</t>
+          <t>Santa Catarina Ayometla</t>
         </is>
       </c>
       <c r="C906">
@@ -12292,7 +12292,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>TEPETITLA DE LARDIZÁBAL</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C907">
@@ -12305,7 +12305,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>TERRENATE</t>
+          <t>Terrenate</t>
         </is>
       </c>
       <c r="C908">
@@ -12318,7 +12318,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>TETLATLAHUCA</t>
+          <t>Tetlatlahuca</t>
         </is>
       </c>
       <c r="C909">
@@ -12331,7 +12331,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C910">
@@ -12344,7 +12344,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>TLAXCO</t>
+          <t>Tlaxco</t>
         </is>
       </c>
       <c r="C911">
@@ -12357,7 +12357,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>TOTOLAC</t>
+          <t>Totolac</t>
         </is>
       </c>
       <c r="C912">
@@ -12370,7 +12370,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>XALOZTOC</t>
+          <t>Xaloztoc</t>
         </is>
       </c>
       <c r="C913">
@@ -12383,7 +12383,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>XICOHTZINCO</t>
+          <t>Xicohtzinco</t>
         </is>
       </c>
       <c r="C914">
@@ -12396,7 +12396,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>ZACATELCO</t>
+          <t>Zacatelco</t>
         </is>
       </c>
       <c r="C915">
@@ -12409,7 +12409,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C916">
@@ -12422,12 +12422,12 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>ACAJETE</t>
+          <t>Acajete</t>
         </is>
       </c>
       <c r="C917">
@@ -12440,7 +12440,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>ACAYUCAN</t>
+          <t>Acayucan</t>
         </is>
       </c>
       <c r="C918">
@@ -12453,7 +12453,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C919">
@@ -12466,7 +12466,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>ACULTZINGO</t>
+          <t>Acultzingo</t>
         </is>
       </c>
       <c r="C920">
@@ -12479,7 +12479,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>ALPATLÁHUAC</t>
+          <t>Alpatláhuac</t>
         </is>
       </c>
       <c r="C921">
@@ -12492,7 +12492,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>ALTO LUCERO DE GUTIÉRREZ BARRIOS</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C922">
@@ -12505,7 +12505,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>ALTOTONGA</t>
+          <t>Altotonga</t>
         </is>
       </c>
       <c r="C923">
@@ -12518,7 +12518,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>ALVARADO</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="C924">
@@ -12531,7 +12531,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>AMATLÁN DE LOS REYES</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C925">
@@ -12544,7 +12544,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>ANGEL R. CABADA</t>
+          <t>Angel R. Cabada</t>
         </is>
       </c>
       <c r="C926">
@@ -12557,7 +12557,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>ATLAHUILCO</t>
+          <t>Atlahuilco</t>
         </is>
       </c>
       <c r="C927">
@@ -12570,7 +12570,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>ATOYAC</t>
+          <t>Atoyac</t>
         </is>
       </c>
       <c r="C928">
@@ -12583,7 +12583,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>ATZALAN</t>
+          <t>Atzalan</t>
         </is>
       </c>
       <c r="C929">
@@ -12596,7 +12596,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>CALCAHUALCO</t>
+          <t>Calcahualco</t>
         </is>
       </c>
       <c r="C930">
@@ -12609,7 +12609,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>CARRILLO PUERTO</t>
+          <t>Carrillo Puerto</t>
         </is>
       </c>
       <c r="C931">
@@ -12622,7 +12622,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>CASTILLO DE TEAYO</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C932">
@@ -12635,7 +12635,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>CATEMACO</t>
+          <t>Catemaco</t>
         </is>
       </c>
       <c r="C933">
@@ -12648,7 +12648,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>CERRO AZUL</t>
+          <t>Cerro Azul</t>
         </is>
       </c>
       <c r="C934">
@@ -12661,7 +12661,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>CHICONQUIACO</t>
+          <t>Chiconquiaco</t>
         </is>
       </c>
       <c r="C935">
@@ -12674,7 +12674,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>CHICONTEPEC</t>
+          <t>Chicontepec</t>
         </is>
       </c>
       <c r="C936">
@@ -12687,7 +12687,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>CHINAMPA DE GOROSTIZA</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C937">
@@ -12700,7 +12700,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>CHUMATLÁN</t>
+          <t>Chumatlán</t>
         </is>
       </c>
       <c r="C938">
@@ -12713,7 +12713,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>CITLALTÉPETL</t>
+          <t>Citlaltépetl</t>
         </is>
       </c>
       <c r="C939">
@@ -12726,7 +12726,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>COACOATZINTLA</t>
+          <t>Coacoatzintla</t>
         </is>
       </c>
       <c r="C940">
@@ -12739,7 +12739,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>COATEPEC</t>
+          <t>Coatepec</t>
         </is>
       </c>
       <c r="C941">
@@ -12752,7 +12752,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
+          <t>Coatzacoalcos</t>
         </is>
       </c>
       <c r="C942">
@@ -12765,7 +12765,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>COLIPA</t>
+          <t>Colipa</t>
         </is>
       </c>
       <c r="C943">
@@ -12778,7 +12778,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>COSAMALOAPAN DE CARPIO</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C944">
@@ -12791,7 +12791,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>COSAUTLÁN DE CARVAJAL</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C945">
@@ -12804,7 +12804,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C946">
@@ -12817,7 +12817,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>COYUTLA</t>
+          <t>Coyutla</t>
         </is>
       </c>
       <c r="C947">
@@ -12830,7 +12830,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>CUICHAPA</t>
+          <t>Cuichapa</t>
         </is>
       </c>
       <c r="C948">
@@ -12843,7 +12843,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C949">
@@ -12856,7 +12856,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>EL HIGO</t>
+          <t>El Higo</t>
         </is>
       </c>
       <c r="C950">
@@ -12869,7 +12869,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C951">
@@ -12882,7 +12882,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>ESPINAL</t>
+          <t>Espinal</t>
         </is>
       </c>
       <c r="C952">
@@ -12895,7 +12895,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>FORTÍN</t>
+          <t>Fortín</t>
         </is>
       </c>
       <c r="C953">
@@ -12908,7 +12908,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>HIDALGOTITLÁN</t>
+          <t>Hidalgotitlán</t>
         </is>
       </c>
       <c r="C954">
@@ -12921,7 +12921,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C955">
@@ -12934,7 +12934,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>HUEYAPAN DE OCAMPO</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C956">
@@ -12947,7 +12947,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>IGNACIO DE LA LLAVE</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C957">
@@ -12960,7 +12960,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>ILAMATLÁN</t>
+          <t>Ilamatlán</t>
         </is>
       </c>
       <c r="C958">
@@ -12973,7 +12973,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>ISLA</t>
+          <t>Isla</t>
         </is>
       </c>
       <c r="C959">
@@ -12986,7 +12986,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>IXHUACÁN DE LOS REYES</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C960">
@@ -12999,7 +12999,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DE MADERO</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C961">
@@ -13012,7 +13012,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>JALACINGO</t>
+          <t>Jalacingo</t>
         </is>
       </c>
       <c r="C962">
@@ -13025,7 +13025,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>JESÚS CARRANZA</t>
+          <t>Jesús Carranza</t>
         </is>
       </c>
       <c r="C963">
@@ -13038,7 +13038,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>JUAN RODRÍGUEZ CLARA</t>
+          <t>Juan Rodríguez Clara</t>
         </is>
       </c>
       <c r="C964">
@@ -13051,7 +13051,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>JUCHIQUE DE FERRER</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C965">
@@ -13064,7 +13064,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>LA ANTIGUA</t>
+          <t>La Antigua</t>
         </is>
       </c>
       <c r="C966">
@@ -13077,7 +13077,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>La Perla</t>
         </is>
       </c>
       <c r="C967">
@@ -13090,7 +13090,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C968">
@@ -13103,7 +13103,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C969">
@@ -13116,7 +13116,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>MECAYAPAN</t>
+          <t>Mecayapan</t>
         </is>
       </c>
       <c r="C970">
@@ -13129,7 +13129,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C971">
@@ -13142,7 +13142,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>MISANTLA</t>
+          <t>Misantla</t>
         </is>
       </c>
       <c r="C972">
@@ -13155,7 +13155,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>NAOLINCO</t>
+          <t>Naolinco</t>
         </is>
       </c>
       <c r="C973">
@@ -13168,7 +13168,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>NAUTLA</t>
+          <t>Nautla</t>
         </is>
       </c>
       <c r="C974">
@@ -13181,7 +13181,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C975">
@@ -13194,7 +13194,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>OMEALCA</t>
+          <t>Omealca</t>
         </is>
       </c>
       <c r="C976">
@@ -13207,7 +13207,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C977">
@@ -13220,7 +13220,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>PAPANTLA</t>
+          <t>Papantla</t>
         </is>
       </c>
       <c r="C978">
@@ -13233,7 +13233,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>PASO DE OVEJAS</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C979">
@@ -13246,7 +13246,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>PASO DEL MACHO</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C980">
@@ -13259,7 +13259,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
+          <t>Playa Vicente</t>
         </is>
       </c>
       <c r="C981">
@@ -13272,7 +13272,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C982">
@@ -13285,7 +13285,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>PUEBLO VIEJO</t>
+          <t>Pueblo Viejo</t>
         </is>
       </c>
       <c r="C983">
@@ -13298,7 +13298,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>PÁNUCO</t>
+          <t>Pánuco</t>
         </is>
       </c>
       <c r="C984">
@@ -13311,7 +13311,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>RÍO BLANCO</t>
+          <t>Río Blanco</t>
         </is>
       </c>
       <c r="C985">
@@ -13324,7 +13324,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C986">
@@ -13337,7 +13337,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>SAN JUAN EVANGELISTA</t>
+          <t>San Juan Evangelista</t>
         </is>
       </c>
       <c r="C987">
@@ -13350,7 +13350,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>SAN RAFAEL</t>
+          <t>San Rafael</t>
         </is>
       </c>
       <c r="C988">
@@ -13363,7 +13363,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>SANTIAGO TUXTLA</t>
+          <t>Santiago Tuxtla</t>
         </is>
       </c>
       <c r="C989">
@@ -13376,7 +13376,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>SOTEAPAN</t>
+          <t>Soteapan</t>
         </is>
       </c>
       <c r="C990">
@@ -13389,7 +13389,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>TAMPICO ALTO</t>
+          <t>Tampico Alto</t>
         </is>
       </c>
       <c r="C991">
@@ -13402,7 +13402,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>TANTOYUCA</t>
+          <t>Tantoyuca</t>
         </is>
       </c>
       <c r="C992">
@@ -13415,7 +13415,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>TATAHUICAPAN DE JUÁREZ</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C993">
@@ -13428,7 +13428,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>TECOLUTLA</t>
+          <t>Tecolutla</t>
         </is>
       </c>
       <c r="C994">
@@ -13441,7 +13441,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>TEHUIPANGO</t>
+          <t>Tehuipango</t>
         </is>
       </c>
       <c r="C995">
@@ -13454,7 +13454,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>TEMPOAL</t>
+          <t>Tempoal</t>
         </is>
       </c>
       <c r="C996">
@@ -13467,7 +13467,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>TENOCHTITLÁN</t>
+          <t>Tenochtitlán</t>
         </is>
       </c>
       <c r="C997">
@@ -13480,7 +13480,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>TEPATLAXCO</t>
+          <t>Tepatlaxco</t>
         </is>
       </c>
       <c r="C998">
@@ -13493,7 +13493,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>TEPETLÁN</t>
+          <t>Tepetlán</t>
         </is>
       </c>
       <c r="C999">
@@ -13506,7 +13506,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>TEZONAPA</t>
+          <t>Tezonapa</t>
         </is>
       </c>
       <c r="C1000">
@@ -13519,7 +13519,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C1001">
@@ -13532,7 +13532,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>TIHUATLÁN</t>
+          <t>Tihuatlán</t>
         </is>
       </c>
       <c r="C1002">
@@ -13545,7 +13545,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>TLACOJALPAN</t>
+          <t>Tlacojalpan</t>
         </is>
       </c>
       <c r="C1003">
@@ -13558,7 +13558,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>TLACOLULAN</t>
+          <t>Tlacolulan</t>
         </is>
       </c>
       <c r="C1004">
@@ -13571,7 +13571,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>Tlalixcoyan</t>
         </is>
       </c>
       <c r="C1005">
@@ -13584,7 +13584,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>TLAPACOYAN</t>
+          <t>Tlapacoyan</t>
         </is>
       </c>
       <c r="C1006">
@@ -13597,7 +13597,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C1007">
@@ -13610,7 +13610,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>URSULO GALVÁN</t>
+          <t>Ursulo Galván</t>
         </is>
       </c>
       <c r="C1008">
@@ -13623,7 +13623,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>UXPANAPA</t>
+          <t>Uxpanapa</t>
         </is>
       </c>
       <c r="C1009">
@@ -13636,7 +13636,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>VEGA DE ALATORRE</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1010">
@@ -13649,7 +13649,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C1011">
@@ -13662,7 +13662,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C1012">
@@ -13675,7 +13675,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>YECUATLA</t>
+          <t>Yecuatla</t>
         </is>
       </c>
       <c r="C1013">
@@ -13688,7 +13688,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>ZONGOLICA</t>
+          <t>Zongolica</t>
         </is>
       </c>
       <c r="C1014">
@@ -13701,7 +13701,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>ÁLAMO TEMAPACHE</t>
+          <t>Álamo Temapache</t>
         </is>
       </c>
       <c r="C1015">
@@ -13714,7 +13714,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1016">
@@ -13727,12 +13727,12 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="C1017">
@@ -13745,7 +13745,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>SOTUTA</t>
+          <t>Sotuta</t>
         </is>
       </c>
       <c r="C1018">
@@ -13758,7 +13758,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1019">
@@ -13771,12 +13771,12 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C1020">
@@ -13789,7 +13789,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>CALERA</t>
+          <t>Calera</t>
         </is>
       </c>
       <c r="C1021">
@@ -13802,7 +13802,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>CAÑITAS DE FELIPE PESCADOR</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1022">
@@ -13815,7 +13815,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>CHALCHIHUITES</t>
+          <t>Chalchihuites</t>
         </is>
       </c>
       <c r="C1023">
@@ -13828,7 +13828,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>CONCEPCIÓN DEL ORO</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1024">
@@ -13841,7 +13841,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>FRESNILLO</t>
+          <t>Fresnillo</t>
         </is>
       </c>
       <c r="C1025">
@@ -13854,7 +13854,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>GENERAL PÁNFILO NATERA</t>
+          <t>General Pánfilo Natera</t>
         </is>
       </c>
       <c r="C1026">
@@ -13867,7 +13867,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C1027">
@@ -13880,7 +13880,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>JALPA</t>
+          <t>Jalpa</t>
         </is>
       </c>
       <c r="C1028">
@@ -13893,7 +13893,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>JIMÉNEZ DEL TEUL</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1029">
@@ -13906,7 +13906,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>JUCHIPILA</t>
+          <t>Juchipila</t>
         </is>
       </c>
       <c r="C1030">
@@ -13919,7 +13919,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>Loreto</t>
         </is>
       </c>
       <c r="C1031">
@@ -13932,7 +13932,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>LUIS MOYA</t>
+          <t>Luis Moya</t>
         </is>
       </c>
       <c r="C1032">
@@ -13945,7 +13945,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>MONTE ESCOBEDO</t>
+          <t>Monte Escobedo</t>
         </is>
       </c>
       <c r="C1033">
@@ -13958,7 +13958,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C1034">
@@ -13971,7 +13971,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>MOYAHUA DE ESTRADA</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1035">
@@ -13984,7 +13984,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C1036">
@@ -13997,7 +13997,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>NORIA DE ÁNGELES</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1037">
@@ -14010,7 +14010,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>OJOCALIENTE</t>
+          <t>Ojocaliente</t>
         </is>
       </c>
       <c r="C1038">
@@ -14023,7 +14023,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C1039">
@@ -14036,7 +14036,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>RÍO GRANDE</t>
+          <t>Río Grande</t>
         </is>
       </c>
       <c r="C1040">
@@ -14049,7 +14049,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>SOMBRERETE</t>
+          <t>Sombrerete</t>
         </is>
       </c>
       <c r="C1041">
@@ -14062,7 +14062,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="C1042">
@@ -14075,7 +14075,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>TEÚL DE GONZÁLEZ ORTEGA</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1043">
@@ -14088,7 +14088,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>TLALTENANGO DE SÁNCHEZ ROMÁN</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1044">
@@ -14101,7 +14101,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>VALPARAÍSO</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="C1045">
@@ -14114,7 +14114,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>VILLA DE COS</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1046">
@@ -14127,7 +14127,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>VILLA GARCÍA</t>
+          <t>Villa García</t>
         </is>
       </c>
       <c r="C1047">
@@ -14140,7 +14140,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>VILLA GONZÁLEZ ORTEGA</t>
+          <t>Villa González Ortega</t>
         </is>
       </c>
       <c r="C1048">
@@ -14153,7 +14153,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C1049">
@@ -14166,7 +14166,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>VILLANUEVA</t>
+          <t>Villanueva</t>
         </is>
       </c>
       <c r="C1050">
@@ -14179,7 +14179,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="C1051">
@@ -14192,7 +14192,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1052">
@@ -14205,7 +14205,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1053">
@@ -14213,41 +14213,6 @@
       </c>
       <c r="D1053">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1055">
-      <c r="A1055" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="1056">
-      <c r="A1056" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1057">
-      <c r="A1057" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1058">
-      <c r="A1058" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1059">
-      <c r="A1059" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>
